--- a/realme_smartphones.xlsx
+++ b/realme_smartphones.xlsx
@@ -448,72 +448,72 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>realme NARZO N61 (Voyage Blue,4GB RAM+64GB Storage) 90Hz Eye Comfort Display | IP54 Dust &amp; Water Resistance | 48-Month Fluency | Charger in The Box 4.0 out of 5 stars 2,945  5K+ bought in past monthPrice, product page₹7,498₹7,498 M.R.P: ₹8,999M.R.P: ₹8,999₹8,999 (17% off)₹500 off coupon appliedSave ₹500  with coupon Service: InstallationAdd to cart</t>
+          <t>SponsoredSponsored You are seeing this ad based on the product’s relevance to your search query.Let us know  Tecno POP 9 5G Aurora Cloud, 4GB+128GB| Segment's 1st 48MP Sony AI Camera| Segment's 1st 5G with NFC | D6300 5G Processor | 4+ Year Lag Free Fluency |5000 mAh Battery |Dual Speaker |Without Charger 3.9 out of 5 stars 466  1K+ bought in past monthLimited time deal  Price, product page₹9,799₹9,799 M.R.P: ₹11,999M.R.P: ₹11,999₹11,999 (18% off)₹1,000 off coupon appliedSave ₹1,000  with coupon Service: InstallationAdd to cart+2 other colors/patterns</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>₹7,498</t>
+          <t>₹9,799</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>realme NARZO N61 (Voyage Blue,6GB RAM+128GB Storage) 90Hz Eye Comfort Display | IP54 Dust &amp; Water Resistance | 48-Month Fluency | Charger in The Box 4.0 out of 5 stars 2,945  5K+ bought in past monthPrice, product page₹8,498₹8,498 M.R.P: ₹10,999M.R.P: ₹10,999₹10,999 (23% off)Service: InstallationAdd to cart</t>
+          <t>realme NARZO N61 (Voyage Blue,4GB RAM+64GB Storage) 90Hz Eye Comfort Display | IP54 Dust &amp; Water Resistance | 48-Month Fluency | Charger in The Box 4.0 out of 5 stars 2,945  5K+ bought in past monthPrice, product page₹7,498₹7,498 M.R.P: ₹8,999M.R.P: ₹8,999₹8,999 (17% off)₹500 off coupon appliedSave ₹500  with coupon Service: InstallationAdd to cart</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>₹8,498</t>
+          <t>₹7,498</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>realme NARZO N65 5G (Amber Gold 6GB RAM, 128GB Storage) India's 1st D6300 5G Chipset | Ultra Slim Design | 120Hz Eye Comfort Display | 50MP AI Camera| Charger in The Box 4.1 out of 5 stars 3,157  5K+ bought in past monthPrice, product page₹11,499₹11,499 M.R.P: ₹14,999M.R.P: ₹14,999₹14,999 (23% off)₹1,000 off coupon appliedSave ₹1,000  with coupon Service: InstallationAdd to cart</t>
+          <t>realme NARZO N61 (Voyage Blue,6GB RAM+128GB Storage) 90Hz Eye Comfort Display | IP54 Dust &amp; Water Resistance | 48-Month Fluency | Charger in The Box 4.0 out of 5 stars 2,945  5K+ bought in past monthPrice, product page₹8,498₹8,498 M.R.P: ₹10,999M.R.P: ₹10,999₹10,999 (23% off)Service: InstallationAdd to cart</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>₹11,499</t>
+          <t>₹8,498</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>realme NARZO N61 (Marble Black,6GB RAM+128GB Storage) 90Hz Eye Comfort Display | IP54 Dust &amp; Water Resistance | 48-Month Fluency | Charger in The Box 4.0 out of 5 stars 2,945  1K+ bought in past monthLimited time dealPrice, product page₹8,498₹8,498 M.R.P: ₹10,999M.R.P: ₹10,999₹10,999 (23% off)Service: InstallationAdd to cart</t>
+          <t>realme NARZO N65 5G (Amber Gold 6GB RAM, 128GB Storage) India's 1st D6300 5G Chipset | Ultra Slim Design | 120Hz Eye Comfort Display | 50MP AI Camera| Charger in The Box 4.1 out of 5 stars 3,157  5K+ bought in past monthPrice, product page₹11,499₹11,499 M.R.P: ₹14,999M.R.P: ₹14,999₹14,999 (23% off)₹1,000 off coupon appliedSave ₹1,000  with coupon Service: InstallationAdd to cart</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>₹8,498</t>
+          <t>₹11,499</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>realme NARZO N61 (Marble Black, 4GB RAM+64GB Storage) 90Hz Eye Comfort Display | IP54 Dust &amp; Water Resistance | 48-Month Fluency | Charger in The Box 4.0 out of 5 stars 2,945  4K+ bought in past monthLimited time dealPrice, product page₹7,498₹7,498 M.R.P: ₹8,999M.R.P: ₹8,999₹8,999 (17% off)₹500 off coupon appliedSave ₹500  with coupon Service: InstallationAdd to cart</t>
+          <t>realme NARZO N61 (Marble Black,6GB RAM+128GB Storage) 90Hz Eye Comfort Display | IP54 Dust &amp; Water Resistance | 48-Month Fluency | Charger in The Box 4.0 out of 5 stars 2,945  1K+ bought in past monthLimited time deal  Price, product page₹8,498₹8,498 M.R.P: ₹10,999M.R.P: ₹10,999₹10,999 (23% off)Service: InstallationAdd to cart</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>₹7,498</t>
+          <t>₹8,498</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>realme NARZO N65 5G (Deep Green 6GB RAM, 128GB Storage) India's 1st D6300 5G Chipset | Ultra Slim Design | 120Hz Eye Comfort Display | 50MP AI Camera| Charger in The Box 4.1 out of 5 stars 3,157  5K+ bought in past monthPrice, product page₹11,498₹11,498 M.R.P: ₹14,999M.R.P: ₹14,999₹14,999 (23% off)₹1,000 off coupon appliedSave ₹1,000  with coupon Service: InstallationAdd to cart</t>
+          <t>realme NARZO N61 (Marble Black, 4GB RAM+64GB Storage) 90Hz Eye Comfort Display | IP54 Dust &amp; Water Resistance | 48-Month Fluency | Charger in The Box 4.0 out of 5 stars 2,945  4K+ bought in past monthLimited time deal  Price, product page₹7,498₹7,498 M.R.P: ₹8,999M.R.P: ₹8,999₹8,999 (17% off)₹500 off coupon appliedSave ₹500  with coupon Service: InstallationAdd to cart</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>₹11,498</t>
+          <t>₹7,498</t>
         </is>
       </c>
     </row>
@@ -532,43 +532,43 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>realme NARZO 80 Pro 5G (Nitro Orange,8GB+256GB) | Segment's 1st MediaTek Dimensity 7400 Chipset | 6000mAh Titan Battery + 80W Ultra Charge | 4500nits HyperGlow Esports Display | IP69 Waterproof 4.4 out of 5 stars 191  Limited time dealPrice, product page₹21,498₹21,498 M.R.P: ₹25,999M.R.P: ₹25,999₹25,999 (17% off)₹1,500 off coupon appliedSave ₹1,500  with coupon Service: InstallationAdd to cart</t>
+          <t>realme NARZO N65 5G (Deep Green 6GB RAM, 128GB Storage) India's 1st D6300 5G Chipset | Ultra Slim Design | 120Hz Eye Comfort Display | 50MP AI Camera| Charger in The Box 4.1 out of 5 stars 3,157  5K+ bought in past monthCurrently unavailable.See options</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>₹21,498</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>realme GT 6T 5G (Fluid Silver,12GB RAM+256GB Storage) | India's 1st 7+ Gen 3 Flagship Chipset | 1.5M + AnTuTu Score | 5500mAh+120W | The World's Brightest Flagship Display 4.3 out of 5 stars 3,838  1K+ bought in past monthPrice, product page₹26,998₹26,998 M.R.P: ₹37,999M.R.P: ₹37,999₹37,999 (29% off)Save extra with No Cost EMIService: InstallationAdd to cart</t>
+          <t>realme NARZO 80 Pro 5G (Nitro Orange,8GB+256GB) | Segment's 1st MediaTek Dimensity 7400 Chipset | 6000mAh Titan Battery + 80W Ultra Charge | 4500nits HyperGlow Esports Display | IP69 Waterproof 4.4 out of 5 stars 191  Limited time deal  Price, product page₹21,498₹21,498 M.R.P: ₹25,999M.R.P: ₹25,999₹25,999 (17% off)₹1,500 off coupon appliedSave ₹1,500  with coupon Service: InstallationAdd to cart</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>₹26,998</t>
+          <t>₹21,498</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>realme P1 Speed 5G (Brushed Blue, 12GB RAM, 256GB Storage)| 24GB DRAM | Expandable Upto 2TB | 6.67" Full HD+ Display | 50MP + 2MP Rear Camera | 16MP Front Camera | Dimensity 7300 Energy Processor 3.6 out of 5 stars 12  200+ bought in past monthPrice, product page₹15,949₹15,949 M.R.P: ₹22,999M.R.P: ₹22,999₹22,999 (31% off)Up to 5% back with Amazon Pay ICICI cardService: InstallationAdd to cart</t>
+          <t>realme GT 6T 5G (Fluid Silver,12GB RAM+256GB Storage) | India's 1st 7+ Gen 3 Flagship Chipset | 1.5M + AnTuTu Score | 5500mAh+120W | The World's Brightest Flagship Display 4.3 out of 5 stars 3,838  1K+ bought in past monthPrice, product page₹26,998₹26,998 M.R.P: ₹37,999M.R.P: ₹37,999₹37,999 (29% off)Save extra with No Cost EMIService: InstallationAdd to cart</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>₹15,949</t>
+          <t>₹26,998</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SponsoredSponsored You are seeing this ad based on the product’s relevance to your search query.Let us know  Samsung Galaxy A55 5G (Awesome Iceblue, 8GB RAM, 128GB Storage) | Metal Frame | 50 MP Main Camera (OIS) | Nightography | IP67 | Corning Gorilla Glass Victus+ | sAMOLED with Vision Booster 4.2 out of 5 stars 621  2K+ bought in past monthLimited time dealPrice, product page₹26,999₹26,999 M.R.P: ₹42,999M.R.P: ₹42,999₹42,999 (37% off)Save extra with No Cost EMIService: InstallationAdd to cart+1 other color/pattern</t>
+          <t>SponsoredSponsored You are seeing this ad based on the product’s relevance to your search query.Let us know  Samsung Galaxy A55 5G (Awesome Iceblue, 8GB RAM, 128GB Storage) | Metal Frame | 50 MP Main Camera (OIS) | Nightography | IP67 | Corning Gorilla Glass Victus+ | sAMOLED with Vision Booster 4.2 out of 5 stars 621  2K+ bought in past monthLimited time deal  Price, product page₹26,999₹26,999 M.R.P: ₹42,999M.R.P: ₹42,999₹42,999 (37% off)Save extra with No Cost EMIService: InstallationAdd to cart+1 other color/pattern</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SponsoredSponsored You are seeing this ad based on the product’s relevance to your search query.Let us know  WOW IMAGINE Shock Proof Clear Back Case Mobile Cover for Realme GT Neo 3 5G (Hard | Hybrid PC + TPU | Full Armour Device &amp; Camera Protection | Black) 4.1 out of 5 stars 144  30+ bought in past monthPrice, product page₹195₹195 (₹19,500₹19,500/100 g) M.R.P: ₹999M.R.P: ₹999₹999 (80% off)Up to 5% back with Amazon Pay ICICI cardAdd to cart+1 other color/pattern</t>
+          <t>SponsoredSponsored You are seeing this ad based on the product’s relevance to your search query.Let us know  WOW IMAGINE Shock Proof Clear Back Case Mobile Cover for Realme GT Neo 3 5G (Hard | Hybrid PC + TPU | Full Armour Device &amp; Camera Protection | Black) 4.1 out of 5 stars 144  30+ bought in past monthPrice, product page₹195₹195 (₹19,500₹19,500/100 g) M.R.P: ₹999M.R.P: ₹999₹999 (80% off)Buy 5 items, get 3% offAdd to cart+1 other color/pattern</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -592,19 +592,19 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>realme NARZO 70 Turbo 5G (Turbo Green,6GB RAM,128GB Storage) | Segment's Fastest Dimensity 7300 Energy 5G Chipset | Motorsports Inspired Design 4.2 out of 5 stars 3,173  2K+ bought in past monthLimited time dealPrice, product page₹14,998₹14,998 M.R.P: ₹19,999M.R.P: ₹19,999₹19,999 (25% off)₹1,500 off coupon appliedSave ₹1,500  with coupon Service: InstallationAdd to cartMore Buying Choices₹14,568(7 new offers)</t>
+          <t>realme P1 Speed 5G (Brushed Blue, 12GB RAM, 256GB Storage)| 24GB DRAM | Expandable Upto 2TB | 6.67" Full HD+ Display | 50MP + 2MP Rear Camera | 16MP Front Camera | Dimensity 7300 Energy Processor 3.6 out of 5 stars 12  200+ bought in past monthPrice, product page₹15,949₹15,949 M.R.P: ₹22,999M.R.P: ₹22,999₹22,999 (31% off)Up to 5% back with Amazon Pay ICICI cardService: InstallationAdd to cart</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>₹14,998</t>
+          <t>₹15,949</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>realme NARZO 70 Turbo 5G (Turbo Purple,6GB RAM,128GB Storage) | Segment's Fastest Dimensity 7300 Energy 5G Chipset | Motorsports Inspired Design 4.2 out of 5 stars 3,173  1K+ bought in past monthLimited time dealPrice, product page₹14,998₹14,998 M.R.P: ₹19,999M.R.P: ₹19,999₹19,999 (25% off)₹1,000 off coupon appliedSave ₹1,000  with coupon Service: InstallationAdd to cartMore Buying Choices₹14,890(2 new offers)</t>
+          <t>realme NARZO 70 Turbo 5G (Turbo Green,6GB RAM,128GB Storage) | Segment's Fastest Dimensity 7300 Energy 5G Chipset | Motorsports Inspired Design 4.2 out of 5 stars 3,174  2K+ bought in past monthLimited time deal  Price, product page₹14,998₹14,998 M.R.P: ₹19,999M.R.P: ₹19,999₹19,999 (25% off)₹1,500 off coupon appliedSave ₹1,500  with coupon Service: InstallationAdd to cartMore Buying Choices₹14,568(7 new offers)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -628,55 +628,55 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>realme 13 Pro+ 5G (Monet Gold, 12GB RAM, 256GB Storage) |Upto 24GB Dynamic RAM | Snapdragon 7s Gen 2 Processor | 6.7" Curved Display | 50MP+8MP+50MP | 32MP Front Cam | AI Ultra Clarity | 80W SUPERVOOC 4.2 out of 5 stars 210  500+ bought in past monthPrice, product page₹23,969₹23,969 M.R.P: ₹38,999M.R.P: ₹38,999₹38,999 (39% off)Up to 5% back with Amazon Pay ICICI cardService: InstallationAdd to cart</t>
+          <t>realme NARZO 70 Turbo 5G (Turbo Purple,6GB RAM,128GB Storage) | Segment's Fastest Dimensity 7300 Energy 5G Chipset | Motorsports Inspired Design 4.2 out of 5 stars 3,174  1K+ bought in past monthLimited time deal  Price, product page₹14,998₹14,998 M.R.P: ₹19,999M.R.P: ₹19,999₹19,999 (25% off)₹1,000 off coupon appliedSave ₹1,000  with coupon Service: InstallationAdd to cartMore Buying Choices₹14,890(2 new offers)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>₹23,969</t>
+          <t>₹14,998</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>realme P3x 5G (Midnight Blue, 6 GB RAM + 128GB Storage) 3.4 out of 5 stars 12  500+ bought in past monthPrice, product page₹12,612₹12,612 M.R.P: ₹16,999M.R.P: ₹16,999₹16,999 (26% off)Up to 5% back with Amazon Pay ICICI cardService: InstallationAdd to cart</t>
+          <t>realme 13 Pro+ 5G (Monet Gold, 12GB RAM, 256GB Storage) |Upto 24GB Dynamic RAM | Snapdragon 7s Gen 2 Processor | 6.7" Curved Display | 50MP+8MP+50MP | 32MP Front Cam | AI Ultra Clarity | 80W SUPERVOOC 4.2 out of 5 stars 210  500+ bought in past monthPrice, product page₹23,965₹23,965 M.R.P: ₹38,999M.R.P: ₹38,999₹38,999 (39% off)Up to 5% back with Amazon Pay ICICI cardService: InstallationAdd to cart</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>₹12,612</t>
+          <t>₹23,965</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>realme 13 5G (Speed Green, 8GB RAM, 128GB Storage) | Expandable Upto 2TB | Up to 18GB Dynamic RAM | 50MP AI Dual Camera | 6.72" AMOLED Display | 45W Ultra Charging | Dimensity 6300 Processor 4.0 out of 5 stars 46  500+ bought in past monthPrice, product page₹14,353₹14,353 M.R.P: ₹21,999M.R.P: ₹21,999₹21,999 (35% off)Up to 5% back with Amazon Pay ICICI cardService: InstallationAdd to cart</t>
+          <t>realme P3x 5G (Midnight Blue, 6 GB RAM + 128GB Storage) 3.4 out of 5 stars 12  500+ bought in past monthPrice, product page₹12,612₹12,612 M.R.P: ₹16,999M.R.P: ₹16,999₹16,999 (26% off)Up to 5% back with Amazon Pay ICICI cardService: InstallationAdd to cart</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>₹14,353</t>
+          <t>₹12,612</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SponsoredSponsored You are seeing this ad based on the product’s relevance to your search query.Let us know  AIBEX ® Realme C21 Flip Cover Leather Finish | Inside TPU with Card Pockets | Wallet Stand | Complete Protection Flip Case Black 4.5 out of 5 stars 2  Price, product page₹299₹299 M.R.P: ₹1,199M.R.P: ₹1,199₹1,199 (75% off)Buy 2 items, get 3% offAdd to cart+1 other color/pattern</t>
+          <t>realme 13 5G (Speed Green, 8GB RAM, 128GB Storage) | Expandable Upto 2TB | Up to 18GB Dynamic RAM | 50MP AI Dual Camera | 6.72" AMOLED Display | 45W Ultra Charging | Dimensity 6300 Processor 4.0 out of 5 stars 46  500+ bought in past monthPrice, product page₹14,353₹14,353 M.R.P: ₹21,999M.R.P: ₹21,999₹21,999 (35% off)Up to 5% back with Amazon Pay ICICI cardService: InstallationAdd to cart</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>₹299</t>
+          <t>₹14,353</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SponsoredSponsored You are seeing this ad based on the product’s relevance to your search query.Let us know  AIBEX ® Realme C11Y / Realme C21Y / Realme C25Y Flip Cover Leather Finish | Inside TPU with Card Pockets | Wallet Stand | Complete Protection Flip Case Green 3.8 out of 5 stars 19  Price, product page₹299₹299 M.R.P: ₹1,199M.R.P: ₹1,199₹1,199 (75% off)Buy 2 items, get 3% offAdd to cart+2 other colors/patterns</t>
+          <t>SponsoredSponsored You are seeing this ad based on the product’s relevance to your search query.Let us know  AIBEX ® Realme C21 Flip Cover Leather Finish | Inside TPU with Card Pockets | Wallet Stand | Complete Protection Flip Case Black 4.5 out of 5 stars 2  Price, product page₹299₹299 M.R.P: ₹1,199M.R.P: ₹1,199₹1,199 (75% off)Buy 2 items, get 3% offAdd to cart+1 other color/pattern</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -688,55 +688,55 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SponsoredSponsored You are seeing this ad based on the product’s relevance to your search query.Let us know  Original Battery BLP693-4230mAh for Realme 3, 3i, RMX1827 RMX1825 RMX1821 with 1 Year Replacement Waranty(GF75GH6683) Price, product page₹1,499₹1,499 M.R.P: ₹2,399M.R.P: ₹2,399₹2,399 (38% off)Up to 5% back with Amazon Pay ICICI cardAdd to cart</t>
+          <t>SponsoredSponsored You are seeing this ad based on the product’s relevance to your search query.Let us know  AIBEX ® Realme C11Y / Realme C21Y / Realme C25Y Flip Cover Leather Finish | Inside TPU with Card Pockets | Wallet Stand | Complete Protection Flip Case Green 3.8 out of 5 stars 19  Price, product page₹299₹299 M.R.P: ₹1,199M.R.P: ₹1,199₹1,199 (75% off)Buy 2 items, get 3% offAdd to cart+2 other colors/patterns</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>₹1,499</t>
+          <t>₹299</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SponsoredSponsored You are seeing this ad based on the product’s relevance to your search query.Let us know  FITSMART Hardcover Protective Rugged Hybrid Robot Armor Hard Back Cover Kickstand Case For Realme 3 - Blue 5.0 out of 5 stars 1  Price, product page₹399₹399 M.R.P: ₹699M.R.P: ₹699₹699 (43% off)Up to 5% back with Amazon Pay ICICI cardAdd to cart</t>
+          <t>SponsoredSponsored You are seeing this ad based on the product’s relevance to your search query.Let us know  AIBEX ® Realme C25 / Realme C25s Flip Cover Leather Finish | Inside TPU with Card Pockets | Wallet Stand | Complete Protection Flip Case Brown 3.8 out of 5 stars 10  Price, product page₹299₹299 M.R.P: ₹1,199M.R.P: ₹1,199₹1,199 (75% off)Up to 5% back with Amazon Pay ICICI cardAdd to cart+3 other colors/patterns</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>₹399</t>
+          <t>₹299</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SponsoredSponsored You are seeing this ad based on the product’s relevance to your search query.Let us know  WOW IMAGINE Shock Proof Clear Back Case Mobile Cover for Realme GT Neo 3 5G (Hard | Hybrid PC + TPU | Full Armour Device &amp; Camera Protection | Black) 4.1 out of 5 stars 144  30+ bought in past monthPrice, product page₹195₹195 (₹19,500₹19,500/100 g) M.R.P: ₹999M.R.P: ₹999₹999 (80% off)Buy 5 items, get 3% offAdd to cart+1 other color/pattern</t>
+          <t>SponsoredSponsored You are seeing this ad based on the product’s relevance to your search query.Let us know  Tecno POP 9 5G Aurora Cloud, 4GB+64GB| Segment's 1st 48MP Sony AI Camera| Segment's 1st 5G with NFC | D6300 5G Processor |4+ Year Lag Free Fluency |5000 mAh Battery |Dual Speaker |Without Charger 3.9 out of 5 stars 466  1K+ bought in past monthLimited time deal  Price, product page₹9,299₹9,299 M.R.P: ₹11,999M.R.P: ₹11,999₹11,999 (23% off)₹1,000 off coupon appliedSave ₹1,000  with coupon  FREE delivery Mon, 19 May Or fastest delivery Fri, 16 May Service: InstallationAdd to cart+2 other colors/patterns</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>₹195</t>
+          <t>₹9,299</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SponsoredSponsored You are seeing this ad based on the product’s relevance to your search query.Let us know  AIBEX ® Realme C11Y / Realme C21Y / Realme C25Y Flip Cover Leather Finish | Inside TPU with Card Pockets | Wallet Stand | Complete Protection Flip Case Green 3.8 out of 5 stars 19  Price, product page₹299₹299 M.R.P: ₹1,199M.R.P: ₹1,199₹1,199 (75% off)Buy 2 items, get 3% offAdd to cart+2 other colors/patterns</t>
+          <t>SponsoredSponsored You are seeing this ad based on the product’s relevance to your search query.Let us know  WOW IMAGINE Shock Proof Clear Back Case Mobile Cover for Realme GT Neo 3 5G (Hard | Hybrid PC + TPU | Full Armour Device &amp; Camera Protection | Black) 4.1 out of 5 stars 144  30+ bought in past monthPrice, product page₹195₹195 (₹19,500₹19,500/100 g) M.R.P: ₹999M.R.P: ₹999₹999 (80% off)Buy 5 items, get 3% offFREE delivery Wed, 21 May on first orderOr fastest delivery Fri, 16 May Add to cart+1 other color/pattern</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>₹299</t>
+          <t>₹195</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>realme P1 Speed 5G (Brushed Blue, 8GB RAM, 128GB Storage) | 16GB DRAM | Expandable Upto 2TB | 6.67" Full HD+ Display | 50MP + 2MP Rear Camera | 16MP Front Camera | Dimensity 7300 Energy Processor 5.0 out of 5 stars 4  100+ bought in past monthPrice, product page₹14,398₹14,398 M.R.P: ₹20,999M.R.P: ₹20,999₹20,999 (31% off)Up to 5% back with Amazon Pay ICICI cardService: InstallationAdd to cartMore Buying Choices₹14,344(6 new offers)</t>
+          <t>realme P1 Speed 5G (Brushed Blue, 8GB RAM, 128GB Storage) | 16GB DRAM | Expandable Upto 2TB | 6.67" Full HD+ Display | 50MP + 2MP Rear Camera | 16MP Front Camera | Dimensity 7300 Energy Processor 5.0 out of 5 stars 4  100+ bought in past monthPrice, product page₹14,398₹14,398 M.R.P: ₹20,999M.R.P: ₹20,999₹20,999 (31% off)Up to 5% back with Amazon Pay ICICI card FREE delivery Wed, 21 May Or fastest delivery Sun, 18 May Service: InstallationAdd to cartMore Buying Choices₹14,344(6 new offers)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>realme P1 5G (Feather Blue, 6GB RAM, 128GB Storage) 3.8 out of 5 stars 61  500+ bought in past monthPrice, product page₹13,990₹13,990 M.R.P: ₹20,999M.R.P: ₹20,999₹20,999 (33% off)Up to 5% back with Amazon Pay ICICI cardOnly 1 left in stock.Service: InstallationAdd to cartMore Buying Choices₹13,929(5 new offers)</t>
+          <t>realme P1 5G (Feather Blue, 6GB RAM, 128GB Storage) 3.8 out of 5 stars 61  500+ bought in past monthPrice, product page₹13,990₹13,990 M.R.P: ₹20,999M.R.P: ₹20,999₹20,999 (33% off)Up to 5% back with Amazon Pay ICICI card FREE delivery Wed, 21 May Only 1 left in stock.Service: InstallationAdd to cartMore Buying Choices₹13,929(5 new offers)</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>realme NARZO 80 Pro 5G (Nitro Orange,12GB+256GB) | Segment's 1st MediaTek Dimensity 7400 Chipset | 6000mAh Titan Battery + 80W Ultra Charge | 4500nits HyperGlow Esports Display | IP69 Waterproof 4.4 out of 5 stars 191  Limited time dealPrice, product page₹23,498₹23,498 M.R.P: ₹27,999M.R.P: ₹27,999₹27,999 (16% off)₹1,500 off coupon appliedSave ₹1,500  with coupon Service: InstallationAdd to cart</t>
+          <t>realme NARZO 80 Pro 5G (Nitro Orange,12GB+256GB) | Segment's 1st MediaTek Dimensity 7400 Chipset | 6000mAh Titan Battery + 80W Ultra Charge | 4500nits HyperGlow Esports Display | IP69 Waterproof 4.4 out of 5 stars 191  Limited time deal  Price, product page₹23,498₹23,498 M.R.P: ₹27,999M.R.P: ₹27,999₹27,999 (16% off)₹1,500 off coupon appliedSave ₹1,500  with coupon  FREE delivery Wed, 21 May Service: InstallationAdd to cart</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>realme P3x 5G (Stellar Pink, 6GB RAM, 128GB Storage) | 6.72" FHD 120Hz Display | 50MP AI Camera | 6000mAh Battery | 45W Fast Charging | Dimensity 6400 Processor | Android 15 | IP69 Rated Smartphone 3.0 out of 5 stars 2  100+ bought in past monthPrice, product page₹12,688₹12,688 M.R.P: ₹16,999M.R.P: ₹16,999₹16,999 (25% off)Up to 5% back with Amazon Pay ICICI cardService: InstallationAdd to cart</t>
+          <t>realme P3x 5G (Stellar Pink, 6GB RAM, 128GB Storage) | 6.72" FHD 120Hz Display | 50MP AI Camera | 6000mAh Battery | 45W Fast Charging | Dimensity 6400 Processor | Android 15 | IP69 Rated Smartphone 3.0 out of 5 stars 2  100+ bought in past monthPrice, product page₹12,688₹12,688 M.R.P: ₹16,999M.R.P: ₹16,999₹16,999 (25% off)Up to 5% back with Amazon Pay ICICI card FREE delivery Wed, 21 May Service: InstallationAdd to cart</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -784,163 +784,163 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>realme C63 5G (Forest Green, 6GB RAM, 128GB Storage) 3.9 out of 5 stars 55  100+ bought in past monthPrice, product page₹11,088₹11,088 M.R.P: ₹13,999M.R.P: ₹13,999₹13,999 (21% off)Save extra with No Cost EMIService: InstallationAdd to cartMore Buying Choices₹11,087(11 new offers)</t>
+          <t>realme P1 Speed 5G (Textured Titanium, 256 GB) (12 GB RAM) 4.1 out of 5 stars 13  400+ bought in past monthPrice, product page₹17,952₹17,952 M.R.P: ₹22,999M.R.P: ₹22,999₹22,999 (22% off)Up to 5% back with Amazon Pay ICICI card FREE delivery Wed, 21 May Only 1 left in stock.Service: InstallationAdd to cart</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>₹11,088</t>
+          <t>₹17,952</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>realme GT 6T 5G (Fluid Silver,8GB RAM+256GB Storage) | India's 1st 7+ Gen 3 Flagship Chipset | 1.5M + AnTuTu Score | 5500mAh+120W | The World's Brightest Flagship Display 4.3 out of 5 stars 3,838  2K+ bought in past monthLimited time dealPrice, product page₹24,998₹24,998 M.R.P: ₹35,999M.R.P: ₹35,999₹35,999 (31% off)Save extra with No Cost EMIService: InstallationAdd to cart</t>
+          <t>realme C63 5G (Forest Green, 6GB RAM, 128GB Storage) 3.9 out of 5 stars 55  100+ bought in past monthPrice, product page₹11,081₹11,081 M.R.P: ₹13,999M.R.P: ₹13,999₹13,999 (21% off)Up to 5% back with Amazon Pay ICICI card FREE delivery Wed, 21 May Service: InstallationAdd to cart</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>₹24,998</t>
+          <t>₹11,081</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>realme P1 Speed 5G (Textured Titanium, 256 GB) (12 GB RAM) 4.1 out of 5 stars 13  400+ bought in past monthPrice, product page₹17,954₹17,954 M.R.P: ₹22,999M.R.P: ₹22,999₹22,999 (22% off)Up to 5% back with Amazon Pay ICICI cardOnly 1 left in stock.Service: InstallationAdd to cart</t>
+          <t>realme C63 5G (Starry Gold, 6GB RAM, 128GB Storage) 4.0 out of 5 stars 30  50+ bought in past monthPrice, product page₹10,799₹10,799 M.R.P: ₹13,999M.R.P: ₹13,999₹13,999 (23% off)Up to 5% back with Amazon Pay ICICI card FREE delivery Wed, 21 May Service: InstallationAdd to cartMore Buying Choices₹10,797(11 new offers)</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>₹17,954</t>
+          <t>₹10,799</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>realme C63 5G (Starry Gold, 6GB RAM, 128GB Storage) 4.0 out of 5 stars 30  50+ bought in past monthPrice, product page₹10,799₹10,799 M.R.P: ₹13,999M.R.P: ₹13,999₹13,999 (23% off)Up to 5% back with Amazon Pay ICICI cardService: InstallationAdd to cart</t>
+          <t>realme GT 6T 5G (Fluid Silver,8GB RAM+256GB Storage) | India's 1st 7+ Gen 3 Flagship Chipset | 1.5M + AnTuTu Score | 5500mAh+120W | The World's Brightest Flagship Display 4.3 out of 5 stars 3,838  2K+ bought in past monthLimited time deal  Price, product page₹24,998₹24,998 M.R.P: ₹35,999M.R.P: ₹35,999₹35,999 (31% off)Save extra with No Cost EMI FREE delivery Fri, 16 May Or fastest delivery Tomorrow, 15 May Service: InstallationAdd to cart</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>₹10,799</t>
+          <t>₹24,998</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SponsoredSponsored You are seeing this ad based on the product’s relevance to your search query.Let us know  Samsung Galaxy A55 5G (Awesome Iceblue, 8GB RAM, 128GB Storage) | Metal Frame | 50 MP Main Camera (OIS) | Nightography | IP67 | Corning Gorilla Glass Victus+ | sAMOLED with Vision Booster 4.2 out of 5 stars 621  2K+ bought in past monthLimited time dealPrice, product page₹26,999₹26,999 M.R.P: ₹42,999M.R.P: ₹42,999₹42,999 (37% off)Save extra with No Cost EMIService: InstallationAdd to cart+1 other color/pattern</t>
+          <t>SponsoredSponsored You are seeing this ad based on the product’s relevance to your search query.Let us know  AIBEX ® Realme C11Y / Realme C21Y / Realme C25Y Flip Cover Leather Finish | Inside TPU with Card Pockets | Wallet Stand | Complete Protection Flip Case Green 3.8 out of 5 stars 19  Price, product page₹299₹299 M.R.P: ₹1,199M.R.P: ₹1,199₹1,199 (75% off)Buy 2 items, get 3% offFREE delivery Wed, 21 May on first orderAdd to cart+2 other colors/patterns</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>₹26,999</t>
+          <t>₹299</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SponsoredSponsored You are seeing this ad based on the product’s relevance to your search query.Let us know  FITSMART Hardcover Protective Rugged Hybrid Robot Armor Hard Back Cover Kickstand Case For Realme 3 - Blue 5.0 out of 5 stars 1  Price, product page₹399₹399 M.R.P: ₹699M.R.P: ₹699₹699 (43% off)Up to 5% back with Amazon Pay ICICI cardAdd to cart</t>
+          <t>SponsoredSponsored You are seeing this ad based on the product’s relevance to your search query.Let us know  Samsung Galaxy A55 5G (Awesome Iceblue, 8GB RAM, 128GB Storage) | Metal Frame | 50 MP Main Camera (OIS) | Nightography | IP67 | Corning Gorilla Glass Victus+ | sAMOLED with Vision Booster 4.2 out of 5 stars 621  2K+ bought in past monthLimited time deal  Price, product page₹26,999₹26,999 M.R.P: ₹42,999M.R.P: ₹42,999₹42,999 (37% off)Save extra with No Cost EMI FREE delivery Wed, 21 May Or fastest delivery Fri, 16 May Service: InstallationAdd to cart+1 other color/pattern</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>₹399</t>
+          <t>₹26,999</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>realme NARZO 80 Pro 5G (Racing Green,8GB+128GB) | Segment's 1st MediaTek Dimensity 7400 Chipset | 6000mAh Titan Battery + 80W Ultra Charge | 4500nits HyperGlow Esports Display | IP69 Waterproof 4.4 out of 5 stars 191  1K+ bought in past monthPrice, product page₹19,998₹19,998 M.R.P: ₹23,999M.R.P: ₹23,999₹23,999 (17% off)₹1,500 off coupon appliedSave ₹1,500  with coupon Service: InstallationAdd to cart</t>
+          <t>realme 13 5G (Speed Green, 8GB RAM, 256GB Storage) | Expandable Upto 2TB | Up to 18GB Dynamic RAM | 50MP AI Dual Camera | 6.72" AMOLED Display | 45W Ultra Charging | Dimensity 6300 Processor 4.0 out of 5 stars 58  500+ bought in past monthPrice, product page₹16,250₹16,250 M.R.P: ₹20,999M.R.P: ₹20,999₹20,999 (23% off)Up to 5% back with Amazon Pay ICICI card FREE delivery Fri, 16 May Or fastest delivery Tomorrow, 15 May Service: InstallationAdd to cartMore Buying Choices₹16,230(8 new offers)</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>₹19,998</t>
+          <t>₹16,250</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>realme 13 5G (Speed Green, 8GB RAM, 256GB Storage) | Expandable Upto 2TB | Up to 18GB Dynamic RAM | 50MP AI Dual Camera | 6.72" AMOLED Display | 45W Ultra Charging | Dimensity 6300 Processor 4.0 out of 5 stars 58  500+ bought in past monthPrice, product page₹16,250₹16,250 M.R.P: ₹20,999M.R.P: ₹20,999₹20,999 (23% off)Up to 5% back with Amazon Pay ICICI cardService: InstallationAdd to cartMore Buying Choices₹16,230(8 new offers)</t>
+          <t>realme P1 Speed 5G (Textured Titanium, 8GB RAM, 128GB Storage) | 16GB DRAM | Expandable Upto 2 TB | 6.67" Full HD+ Display | 50MP + 2MP | 16MP Front Camera | Dimensity 7300 Energy Processor 4.0 out of 5 stars 26  200+ bought in past monthPrice, product page₹14,490₹14,490 M.R.P: ₹20,999M.R.P: ₹20,999₹20,999 (31% off)Up to 5% back with Amazon Pay ICICI card FREE delivery Wed, 21 May Service: InstallationAdd to cart</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>₹16,250</t>
+          <t>₹14,490</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>realme NARZO 80x 5G (Deep Ocean,8GB+128GB) | | Dimensity 6400 5G Chipset | 6000mAh Long-Lasting Battery | 45W Fast Charge | 120Hz Eye Comfort Display | IP69 Top-Tier Waterproof 4.2 out of 5 stars 210  3K+ bought in past monthPrice, product page₹14,998₹14,998 M.R.P: ₹16,999M.R.P: ₹16,999₹16,999 (12% off)₹1,750 off coupon appliedSave ₹1,750  with coupon Service: InstallationAdd to cart</t>
+          <t>realme NARZO 80 Pro 5G (Racing Green,8GB+128GB) | Segment's 1st MediaTek Dimensity 7400 Chipset | 6000mAh Titan Battery + 80W Ultra Charge | 4500nits HyperGlow Esports Display | IP69 Waterproof 4.4 out of 5 stars 191  1K+ bought in past monthPrice, product page₹19,998₹19,998 M.R.P: ₹23,999M.R.P: ₹23,999₹23,999 (17% off)₹1,500 off coupon appliedSave ₹1,500  with coupon  FREE delivery Wed, 21 May Or fastest delivery Fri, 16 May Service: InstallationAdd to cart</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>₹14,998</t>
+          <t>₹19,998</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>realme P1 Speed 5G (Textured Titanium, 8GB RAM, 128GB Storage) | 16GB DRAM | Expandable Upto 2 TB | 6.67" Full HD+ Display | 50MP + 2MP | 16MP Front Camera | Dimensity 7300 Energy Processor 4.0 out of 5 stars 26  200+ bought in past monthPrice, product page₹14,490₹14,490 M.R.P: ₹20,999M.R.P: ₹20,999₹20,999 (31% off)Up to 5% back with Amazon Pay ICICI cardService: InstallationAdd to cart</t>
+          <t>realme NARZO 80x 5G (Deep Ocean,8GB+128GB) | | Dimensity 6400 5G Chipset | 6000mAh Long-Lasting Battery | 45W Fast Charge | 120Hz Eye Comfort Display | IP69 Top-Tier Waterproof 4.2 out of 5 stars 210  3K+ bought in past monthPrice, product page₹14,998₹14,998 M.R.P: ₹16,999M.R.P: ₹16,999₹16,999 (12% off)₹1,750 off coupon appliedSave ₹1,750  with coupon  FREE delivery Wed, 21 May Or fastest delivery Fri, 16 May Service: InstallationAdd to cart</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>₹14,490</t>
+          <t>₹14,998</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>realme C61 4G (64, Marble Black, New) 4.2 out of 5 stars 35  50+ bought in past monthPrice, product page₹7,198₹7,198 M.R.P: ₹10,999M.R.P: ₹10,999₹10,999 (35% off)Up to 5% back with Amazon Pay ICICI cardService: InstallationAdd to cart</t>
+          <t>realme P3x 5G (Lunar Silver, 6 GB RAM + 128GB Storage) 3.9 out of 5 stars 9  200+ bought in past monthPrice, product page₹12,650₹12,650 M.R.P: ₹16,999M.R.P: ₹16,999₹16,999 (26% off)Up to 5% back with Amazon Pay ICICI card FREE delivery Wed, 21 May Service: InstallationAdd to cart</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>₹7,198</t>
+          <t>₹12,650</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>realme P3x 5G (Lunar Silver, 6 GB RAM + 128GB Storage) 3.9 out of 5 stars 9  200+ bought in past monthPrice, product page₹12,650₹12,650 M.R.P: ₹16,999M.R.P: ₹16,999₹16,999 (26% off)Up to 5% back with Amazon Pay ICICI cardService: InstallationAdd to cart</t>
+          <t>realme C61 4G (64, Marble Black, New) 4.2 out of 5 stars 35  50+ bought in past monthPrice, product page₹7,198₹7,198 M.R.P: ₹10,999M.R.P: ₹10,999₹10,999 (35% off)Up to 5% back with Amazon Pay ICICI card FREE delivery Wed, 21 May Service: InstallationAdd to cart</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>₹12,650</t>
+          <t>₹7,198</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>realme C63 Jade Green 4GB 128GB 3.0 out of 5 stars 10  50+ bought in past monthPrice, product page₹8,429₹8,429 M.R.P: ₹10,999M.R.P: ₹10,999₹10,999 (23% off)Up to 5% back with Amazon Pay ICICI cardService: InstallationAdd to cart</t>
+          <t>realme 13 Pro 5G (Monet Gold,12GB+512GB) 4.0 out of 5 stars 50  200+ bought in past monthPrice, product page₹23,998₹23,998 M.R.P: ₹34,999M.R.P: ₹34,999₹34,999 (31% off)Up to 5% back with Amazon Pay ICICI card FREE delivery Wed, 21 May Only 1 left in stock.Service: InstallationAdd to cart</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>₹8,429</t>
+          <t>₹23,998</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Realme C11 (Rich Green, 32 GB) (2 GB RAM) 3.9 out of 5 stars 502  Price, product page₹5,990₹5,990 M.R.P: ₹8,999M.R.P: ₹8,999₹8,999 (33% off)Up to 5% back with Amazon Pay ICICI cardService: InstallationAdd to cart</t>
+          <t>Realme C11 (Rich Green, 32 GB) (2 GB RAM) 3.9 out of 5 stars 502  Price, product page₹5,990₹5,990 M.R.P: ₹8,999M.R.P: ₹8,999₹8,999 (33% off)Up to 5% back with Amazon Pay ICICI card FREE delivery Wed, 21 May Service: InstallationAdd to cart</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SponsoredSponsored You are seeing this ad based on the product’s relevance to your search query.Let us know  Fast Android Charger for Realme C2 Original Oppo Charger Cable Adapter Wall Charger | Mobile Chargers | Fast Charger | Android USB Charger with 1 Meter Micro USB Charging Data Cable [2.4 Amp, White] Price, product page₹349₹349 M.R.P: ₹799M.R.P: ₹799₹799 (56% off)Up to 5% back with Amazon Pay ICICI cardAdd to cart</t>
+          <t>SponsoredSponsored You are seeing this ad based on the product’s relevance to your search query.Let us know  Fast Android Charger for Realme C2 Original Oppo Charger Cable Adapter Wall Charger | Mobile Chargers | Fast Charger | Android USB Charger with 1 Meter Micro USB Charging Data Cable [2.4 Amp, White] Price, product page₹349₹349 M.R.P: ₹799M.R.P: ₹799₹799 (56% off)Up to 5% back with Amazon Pay ICICI card FREE delivery Wed, 21 May Add to cart</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -964,43 +964,43 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SponsoredSponsored You are seeing this ad based on the product’s relevance to your search query.Let us know  AIBEX ® Realme C21 Flip Cover Leather Finish | Inside TPU with Card Pockets | Wallet Stand | Complete Protection Flip Case Black 4.5 out of 5 stars 2  Price, product page₹299₹299 M.R.P: ₹1,199M.R.P: ₹1,199₹1,199 (75% off)Buy 2 items, get 3% offAdd to cart+1 other color/pattern</t>
+          <t>SponsoredSponsored You are seeing this ad based on the product’s relevance to your search query.Let us know  FITSMART Hardcover Protective Rugged Hybrid Robot Armor Hard Back Cover Kickstand Case For Realme 3 - Blue 5.0 out of 5 stars 1  Price, product page₹399₹399 M.R.P: ₹699M.R.P: ₹699₹699 (43% off)Up to 5% back with Amazon Pay ICICI card FREE delivery Wed, 21 May Add to cart</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>₹299</t>
+          <t>₹399</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SponsoredSponsored You are seeing this ad based on the product’s relevance to your search query.Let us know  WOW IMAGINE Shock Proof Clear Back Case Mobile Cover for Realme GT Neo 3 5G (Hard | Hybrid PC + TPU | Full Armour Device &amp; Camera Protection | Black) 4.1 out of 5 stars 144  30+ bought in past monthPrice, product page₹195₹195 (₹19,500₹19,500/100 g) M.R.P: ₹999M.R.P: ₹999₹999 (80% off)Buy 5 items, get 3% offAdd to cart+1 other color/pattern</t>
+          <t>SponsoredSponsored You are seeing this ad based on the product’s relevance to your search query.Let us know  Tecno POP 9 5G Aurora Cloud, 4GB+64GB| Segment's 1st 48MP Sony AI Camera| Segment's 1st 5G with NFC | D6300 5G Processor |4+ Year Lag Free Fluency |5000 mAh Battery |Dual Speaker |Without Charger 3.9 out of 5 stars 466  1K+ bought in past monthLimited time deal  Price, product page₹9,299₹9,299 M.R.P: ₹11,999M.R.P: ₹11,999₹11,999 (23% off)₹1,000 off coupon appliedSave ₹1,000  with coupon  FREE delivery Mon, 19 May Or fastest delivery Fri, 16 May Service: InstallationAdd to cart+2 other colors/patterns</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>₹195</t>
+          <t>₹9,299</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SponsoredSponsored You are seeing this ad based on the product’s relevance to your search query.Let us know  AIBEX ® Realme C11Y / Realme C21Y / Realme C25Y Flip Cover Leather Finish | Inside TPU with Card Pockets | Wallet Stand | Complete Protection Flip Case Green 3.8 out of 5 stars 19  Price, product page₹299₹299 M.R.P: ₹1,199M.R.P: ₹1,199₹1,199 (75% off)Buy 2 items, get 3% offAdd to cart+2 other colors/patterns</t>
+          <t>SponsoredSponsored You are seeing this ad based on the product’s relevance to your search query.Let us know  WOW IMAGINE Shock Proof Clear Back Case Mobile Cover for Realme GT Neo 3 5G (Hard | Hybrid PC + TPU | Full Armour Device &amp; Camera Protection | Black) 4.1 out of 5 stars 144  Price, product page₹195₹195 (₹19,500₹19,500/100 g) M.R.P: ₹999M.R.P: ₹999₹999 (80% off)Buy 5 items, get 3% offFREE delivery Wed, 21 May on first orderOr fastest delivery Fri, 16 May Add to cart+1 other color/pattern</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>₹299</t>
+          <t>₹195</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>realme 13 Pro+ 5G (8, Emerald Green, New) 4.2 out of 5 stars 210  500+ bought in past monthPrice, product page₹23,649₹23,649 M.R.P: ₹36,999M.R.P: ₹36,999₹36,999 (36% off)Up to 5% back with Amazon Pay ICICI cardService: InstallationAdd to cart</t>
+          <t>realme 13 Pro+ 5G (8, Emerald Green, New) 4.2 out of 5 stars 210  500+ bought in past monthPrice, product page₹23,649₹23,649 M.R.P: ₹36,999M.R.P: ₹36,999₹36,999 (36% off)Up to 5% back with Amazon Pay ICICI card FREE delivery Wed, 21 May Service: InstallationAdd to cart</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>realme NARZO N65 5G (Amber Gold 8GB RAM, 128GB Storage) India's 1st D6300 5G Chipset | Ultra Slim Design | 120Hz Eye Comfort Display | 50MP AI Camera| Charger in The Box 4.1 out of 5 stars 3,157  100+ bought in past monthPrice, product page₹13,499₹13,499 M.R.P: ₹15,999M.R.P: ₹15,999₹15,999 (16% off)Only 1 left in stock.Service: InstallationAdd to cart</t>
+          <t>realme NARZO N65 5G (Amber Gold 8GB RAM, 128GB Storage) India's 1st D6300 5G Chipset | Ultra Slim Design | 120Hz Eye Comfort Display | 50MP AI Camera| Charger in The Box 4.1 out of 5 stars 3,157  100+ bought in past monthPrice, product page₹13,499₹13,499 M.R.P: ₹15,999M.R.P: ₹15,999₹15,999 (16% off) FREE delivery 17 - 21 May Service: InstallationAdd to cart</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1024,43 +1024,43 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>realme C61 4G (6 GB, 128GB Safari Green) 3.5 out of 5 stars 39  50+ bought in past monthPrice, product page₹8,355₹8,355 M.R.P: ₹10,999M.R.P: ₹10,999₹10,999 (24% off)Save extra with No Cost EMIOnly 2 left in stock.Service: InstallationAdd to cartMore Buying Choices₹8,349(5 new offers)</t>
+          <t>realme 13 Pro 5G (Monet Gold,12GB+512GB) 4.0 out of 5 stars 50  200+ bought in past monthPrice, product page₹23,998₹23,998 M.R.P: ₹34,999M.R.P: ₹34,999₹34,999 (31% off)Up to 5% back with Amazon Pay ICICI card FREE delivery Wed, 21 May Only 1 left in stock.Service: InstallationAdd to cart</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>₹8,355</t>
+          <t>₹23,998</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>realme C61 Safari Green 4GB 64GB 4.1 out of 5 stars 75  100+ bought in past monthPrice, product page₹7,175₹7,175 M.R.P: ₹8,999M.R.P: ₹8,999₹8,999 (20% off)Save extra with No Cost EMIService: InstallationAdd to cart</t>
+          <t>realme C61 4G (6 GB, 128GB Safari Green) 3.5 out of 5 stars 39  50+ bought in past monthPrice, product page₹8,355₹8,355 M.R.P: ₹10,999M.R.P: ₹10,999₹10,999 (24% off)Up to 5% back with Amazon Pay ICICI card FREE delivery Wed, 21 May Only 2 left in stock.Service: InstallationAdd to cartMore Buying Choices₹8,348(5 new offers)</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>₹7,175</t>
+          <t>₹8,355</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>realme 13 Pro 5G (Monet Gold,12GB+512GB) 4.0 out of 5 stars 50  200+ bought in past monthPrice, product page₹23,998₹23,998 M.R.P: ₹34,999M.R.P: ₹34,999₹34,999 (31% off)Up to 5% back with Amazon Pay ICICI cardOnly 1 left in stock.Service: InstallationAdd to cartMore Buying Choices₹23,498(4 new offers)</t>
+          <t>realme C61 Safari Green 4GB 64GB 4.1 out of 5 stars 75  100+ bought in past monthPrice, product page₹7,174₹7,174 M.R.P: ₹8,999M.R.P: ₹8,999₹8,999 (20% off)Up to 5% back with Amazon Pay ICICI card FREE delivery 18 - 25 May Service: InstallationAdd to cart</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>₹23,998</t>
+          <t>₹7,174</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>realme 14x 5G (Crystal Black, 8GB RAM, 128GB Storage) 4.0 out of 5 stars 32  100+ bought in past monthPrice, product page₹15,424₹15,424 M.R.P: ₹17,999M.R.P: ₹17,999₹17,999 (14% off)Up to 5% back with Amazon Pay ICICI cardService: InstallationAdd to cart</t>
+          <t>realme 14x 5G (Crystal Black, 8GB RAM, 128GB Storage) 4.0 out of 5 stars 32  100+ bought in past monthPrice, product page₹15,424₹15,424 M.R.P: ₹17,999M.R.P: ₹17,999₹17,999 (14% off)Up to 5% back with Amazon Pay ICICI card FREE delivery Wed, 21 May Service: InstallationAdd to cart</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>realme NARZO 70 Turbo 5G (Turbo Yellow, 8GB RAM, 128GB Storage) | Segment's Fastest Dimensity 7300 Energy 5G Chipset | Motorsports Inspired Design 4.2 out of 5 stars 3,173  500+ bought in past monthPrice, product page₹15,998₹15,998 M.R.P: ₹20,999M.R.P: ₹20,999₹20,999 (24% off)₹1,000 off coupon appliedSave ₹1,000  with coupon Service: InstallationAdd to cart</t>
+          <t>realme NARZO 70 Turbo 5G (Turbo Green, 8GB RAM,128GB Storage) | Segment's Fastest Dimensity 7300 Energy 5G Chipset | Motorsports Inspired Design 4.2 out of 5 stars 3,174  1K+ bought in past monthLimited time deal  Price, product page₹15,998₹15,998 M.R.P: ₹20,999M.R.P: ₹20,999₹20,999 (24% off)₹1,500 off coupon appliedSave ₹1,500  with coupon  FREE delivery Wed, 21 May Or fastest delivery Fri, 16 May Service: InstallationAdd to cartMore Buying Choices₹15,900(3 new offers)</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>realme NARZO 70 Turbo 5G (Turbo Green, 8GB RAM,128GB Storage) | Segment's Fastest Dimensity 7300 Energy 5G Chipset | Motorsports Inspired Design 4.2 out of 5 stars 3,173  1K+ bought in past monthLimited time deal  Price, product page₹15,998₹15,998 M.R.P: ₹20,999M.R.P: ₹20,999₹20,999 (24% off)₹1,500 off coupon appliedSave ₹1,500  with coupon Service: InstallationAdd to cartMore Buying Choices₹15,900(3 new offers)</t>
+          <t>realme NARZO 70 Turbo 5G (Turbo Yellow, 8GB RAM, 128GB Storage) | Segment's Fastest Dimensity 7300 Energy 5G Chipset | Motorsports Inspired Design 4.2 out of 5 stars 3,174  500+ bought in past monthPrice, product page₹15,998₹15,998 M.R.P: ₹20,999M.R.P: ₹20,999₹20,999 (24% off)₹1,000 off coupon appliedSave ₹1,000  with coupon  FREE delivery Wed, 21 May Service: InstallationAdd to cart</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1096,31 +1096,31 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SponsoredSponsored You are seeing this ad based on the product’s relevance to your search query.Let us know  Fast Android Charger for Realme C2 Original Oppo Charger Cable Adapter Wall Charger | Mobile Chargers | Fast Charger | Android USB Charger with 1 Meter Micro USB Charging Data Cable [2.4 Amp, White] Price, product page₹349₹349 (₹34,900₹34,900/100 g) M.R.P: ₹799M.R.P: ₹799₹799 (56% off)Up to 5% back with Amazon Pay ICICI cardAdd to cart</t>
+          <t>SponsoredSponsored You are seeing this ad based on the product’s relevance to your search query.Let us know  AIBEX ® Realme C11Y / Realme C21Y / Realme C25Y Flip Cover Leather Finish | Inside TPU with Card Pockets | Wallet Stand | Complete Protection Flip Case Green 3.8 out of 5 stars 19  Price, product page₹299₹299 M.R.P: ₹1,199M.R.P: ₹1,199₹1,199 (75% off)Buy 2 items, get 3% offFREE delivery Wed, 21 May on first orderAdd to cart+2 other colors/patterns</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>₹349</t>
+          <t>₹299</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SponsoredSponsored You are seeing this ad based on the product’s relevance to your search query.Let us know  FITSMART Hardcover Protective Rugged Hybrid Robot Armor Hard Back Cover Kickstand Case For Realme 3 - Blue 5.0 out of 5 stars 1  Price, product page₹399₹399 M.R.P: ₹699M.R.P: ₹699₹699 (43% off)Up to 5% back with Amazon Pay ICICI cardAdd to cart</t>
+          <t>SponsoredSponsored You are seeing this ad based on the product’s relevance to your search query.Let us know  Fast Android Charger for Realme C2 Original Oppo Charger Cable Adapter Wall Charger | Mobile Chargers | Fast Charger | Android USB Charger with 1 Meter Micro USB Charging Data Cable [2.4 Amp, White] Price, product page₹349₹349 (₹34,900₹34,900/100 g) M.R.P: ₹799M.R.P: ₹799₹799 (56% off)Up to 5% back with Amazon Pay ICICI card FREE delivery Wed, 21 May Add to cart</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>₹399</t>
+          <t>₹349</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>realme C63 Leather Blue 4GB 128GB 3.8 out of 5 stars 18  100+ bought in past monthPrice, product page₹8,889₹8,889 M.R.P: ₹10,999M.R.P: ₹10,999₹10,999 (19% off)Up to 5% back with Amazon Pay ICICI cardService: InstallationAdd to cart</t>
+          <t>realme C63 Leather Blue 4GB 128GB 3.8 out of 5 stars 18  100+ bought in past monthPrice, product page₹8,889₹8,889 M.R.P: ₹10,999M.R.P: ₹10,999₹10,999 (19% off)Up to 5% back with Amazon Pay ICICI card FREE delivery Wed, 21 May Service: InstallationAdd to cart</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1132,7 +1132,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>realme NARZO 70 Turbo 5G (Turbo Yellow,6GB RAM,128GB Storage) | Segment's Fastest Dimensity 7300 Energy 5G Chipset | Motorsports Inspired Design 4.2 out of 5 stars 3,173  Price, product page₹15,899₹15,899 M.R.P: ₹19,999M.R.P: ₹19,999₹19,999 (21% off)Up to 5% back with Amazon Pay ICICI cardService: InstallationAdd to cart</t>
+          <t>realme NARZO 70 Turbo 5G (Turbo Yellow,6GB RAM,128GB Storage) | Segment's Fastest Dimensity 7300 Energy 5G Chipset | Motorsports Inspired Design 4.2 out of 5 stars 3,174  Price, product page₹15,899₹15,899 M.R.P: ₹19,999M.R.P: ₹19,999₹19,999 (21% off)Up to 5% back with Amazon Pay ICICI card FREE delivery 18 - 21 May Service: InstallationAdd to cart</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1144,7 +1144,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Redmi A4 5G (Starry Black, 4GB RAM, 128GB Storage) | Global Debut SD 4s Gen 2 | Segment Largest 6.88in 120Hz | 50MP Dual Camera | 18W Fast Charging 3.9 out of 5 stars 2,972  5K+ bought in past monthPrice, product page₹9,499₹9,499 M.R.P: ₹11,999M.R.P: ₹11,999₹11,999 (21% off)Up to 5% back with Amazon Pay ICICI cardService: InstallationAdd to cart+1 other color/pattern</t>
+          <t>Redmi A4 5G (Starry Black, 4GB RAM, 128GB Storage) | Global Debut SD 4s Gen 2 | Segment Largest 6.88in 120Hz | 50MP Dual Camera | 18W Fast Charging 3.9 out of 5 stars 2,972  5K+ bought in past monthPrice, product page₹9,499₹9,499 M.R.P: ₹11,999M.R.P: ₹11,999₹11,999 (21% off)Up to 5% back with Amazon Pay ICICI card FREE delivery Fri, 16 May Or fastest delivery Tomorrow, 15 May Service: InstallationAdd to cart+1 other color/pattern</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1156,7 +1156,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>realme 12x 5G (Twilight Purple, 8GB RAM, 128GB Storage) | Upto 16GB (8+8GB) Dynamic RAM | Dimensity 6100+ Processor | 50 MP AI Camera | 7.69 mm Ultra-Slim Trendy Watch Design | 45 W SUPERVOOC Charge 4.2 out of 5 stars 343  100+ bought in past monthPrice, product page₹13,999₹13,999 M.R.P: ₹18,999M.R.P: ₹18,999₹18,999 (26% off)Up to 5% back with Amazon Pay ICICI cardService: InstallationAdd to cartMore Buying Choices₹13,470(4 new offers)</t>
+          <t>realme 12x 5G (Twilight Purple, 8GB RAM, 128GB Storage) | Upto 16GB (8+8GB) Dynamic RAM | Dimensity 6100+ Processor | 50 MP AI Camera | 7.69 mm Ultra-Slim Trendy Watch Design | 45 W SUPERVOOC Charge 4.2 out of 5 stars 343  100+ bought in past monthPrice, product page₹13,999₹13,999 M.R.P: ₹18,999M.R.P: ₹18,999₹18,999 (26% off)Up to 5% back with Amazon Pay ICICI card FREE delivery Wed, 21 May Or fastest delivery Fri, 16 May Service: InstallationAdd to cartMore Buying Choices₹13,470(4 new offers)</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1168,7 +1168,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>realme NARZO 80 Pro 5G (Speed Silver,8GB+128GB) | Segment's 1st MediaTek Dimensity 7400 Chipset | 6000mAh Titan Battery + 80W Ultra Charge | 4500nits HyperGlow Esports Display | IP69 Waterproof 4.4 out of 5 stars 191  2K+ bought in past monthPrice, product page₹19,998₹19,998 M.R.P: ₹23,999M.R.P: ₹23,999₹23,999 (17% off)₹1,500 off coupon appliedSave ₹1,500  with coupon Service: InstallationAdd to cart</t>
+          <t>realme NARZO 80 Pro 5G (Speed Silver,8GB+128GB) | Segment's 1st MediaTek Dimensity 7400 Chipset | 6000mAh Titan Battery + 80W Ultra Charge | 4500nits HyperGlow Esports Display | IP69 Waterproof 4.4 out of 5 stars 191  2K+ bought in past monthPrice, product page₹19,998₹19,998 M.R.P: ₹23,999M.R.P: ₹23,999₹23,999 (17% off)₹1,500 off coupon appliedSave ₹1,500  with coupon  FREE delivery Wed, 21 May Or fastest delivery Fri, 16 May Service: InstallationAdd to cart</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1180,7 +1180,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>realme 13 Pro 5G (Emerald Green,8GB+256GB) 4.0 out of 5 stars 56  100+ bought in past monthPrice, product page₹21,927₹21,927 M.R.P: ₹30,999M.R.P: ₹30,999₹30,999 (29% off)Up to 5% back with Amazon Pay ICICI cardService: InstallationAdd to cart</t>
+          <t>realme 13 Pro 5G (Emerald Green,8GB+256GB) 4.0 out of 5 stars 56  100+ bought in past monthPrice, product page₹21,927₹21,927 M.R.P: ₹30,999M.R.P: ₹30,999₹30,999 (29% off)Up to 5% back with Amazon Pay ICICI card FREE delivery Wed, 21 May Service: InstallationAdd to cart</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1192,84 +1192,84 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>realme NARZO 80x 5G (Sunlit Gold,8GB+128GB) | | Dimensity 6400 5G Chipset | 6000mAh Long-Lasting Battery | 45W Fast Charge | 120Hz Eye Comfort Display | IP69 Top-Tier Waterproof 4.2 out of 5 stars 210  2K+ bought in past monthPrice, product page₹14,998₹14,998 M.R.P: ₹16,999M.R.P: ₹16,999₹16,999 (12% off)₹1,750 off coupon appliedSave ₹1,750  with coupon Service: InstallationAdd to cart</t>
+          <t>Redmi A4 5G (Sparkle Purple, 4GB RAM, 64GB Storage) | Global Debut SD 4s Gen 2 | Segment Largest 6.88in 120Hz | 50MP Dual Camera | 18W Fast Charging 3.9 out of 5 stars 2,972  5K+ bought in past monthPrice, product page₹8,499₹8,499 M.R.P: ₹10,999M.R.P: ₹10,999₹10,999 (23% off)Up to 5% back with Amazon Pay ICICI card FREE delivery Fri, 16 May Or fastest delivery Tomorrow, 15 May Service: InstallationAdd to cart+1 other color/pattern</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>₹14,998</t>
+          <t>₹8,499</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>realme C65 5G (Glowing Black, 128 GB) (4 GB RAM) 3.3 out of 5 stars 21  Price, product page₹11,990₹11,990 M.R.P: ₹14,999M.R.P: ₹14,999₹14,999 (20% off)Up to 5% back with Amazon Pay ICICI cardOnly 2 left in stock.Service: InstallationAdd to cart</t>
+          <t>realme NARZO 80x 5G (Sunlit Gold,8GB+128GB) | | Dimensity 6400 5G Chipset | 6000mAh Long-Lasting Battery | 45W Fast Charge | 120Hz Eye Comfort Display | IP69 Top-Tier Waterproof 4.2 out of 5 stars 210  2K+ bought in past monthPrice, product page₹14,998₹14,998 M.R.P: ₹16,999M.R.P: ₹16,999₹16,999 (12% off)₹1,750 off coupon appliedSave ₹1,750  with coupon  FREE delivery Mon, 19 May Or fastest delivery Fri, 16 May Service: InstallationAdd to cart</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>₹11,990</t>
+          <t>₹14,998</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SponsoredSponsored You are seeing this ad based on the product’s relevance to your search query.Let us know  Samsung Galaxy A55 5G (Awesome Iceblue, 8GB RAM, 128GB Storage) | Metal Frame | 50 MP Main Camera (OIS) | Nightography | IP67 | Corning Gorilla Glass Victus+ | sAMOLED with Vision Booster 4.2 out of 5 stars 621  2K+ bought in past monthLimited time deal  Price, product page₹26,999₹26,999 M.R.P: ₹42,999M.R.P: ₹42,999₹42,999 (37% off)Save extra with No Cost EMIService: InstallationAdd to cart+1 other color/pattern</t>
+          <t>SponsoredSponsored You are seeing this ad based on the product’s relevance to your search query.Let us know  FITSMART Hardcover Protective Rugged Hybrid Robot Armor Hard Back Cover Kickstand Case For Realme 3 - Blue 5.0 out of 5 stars 1  Price, product page₹399₹399 M.R.P: ₹699M.R.P: ₹699₹699 (43% off)Up to 5% back with Amazon Pay ICICI card FREE delivery Wed, 21 May Add to cart</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>₹26,999</t>
+          <t>₹399</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>SponsoredSponsored You are seeing this ad based on the product’s relevance to your search query.Let us know  AIBEX ® Realme C21 Flip Cover Leather Finish | Inside TPU with Card Pockets | Wallet Stand | Complete Protection Flip Case Black 4.5 out of 5 stars 2  Price, product page₹299₹299 M.R.P: ₹1,199M.R.P: ₹1,199₹1,199 (75% off)Buy 2 items, get 3% offAdd to cart+1 other color/pattern</t>
+          <t>SponsoredSponsored You are seeing this ad based on the product’s relevance to your search query.Let us know  Samsung Galaxy A55 5G (Awesome Iceblue, 8GB RAM, 128GB Storage) | Metal Frame | 50 MP Main Camera (OIS) | Nightography | IP67 | Corning Gorilla Glass Victus+ | sAMOLED with Vision Booster 4.2 out of 5 stars 621  2K+ bought in past monthLimited time deal  Price, product page₹26,999₹26,999 M.R.P: ₹42,999M.R.P: ₹42,999₹42,999 (37% off)Save extra with No Cost EMI FREE delivery Wed, 21 May Or fastest delivery Fri, 16 May Service: InstallationAdd to cart+1 other color/pattern</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>₹299</t>
+          <t>₹26,999</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SponsoredSponsored You are seeing this ad based on the product’s relevance to your search query.Let us know  WOW IMAGINE Shock Proof Clear Back Case Mobile Cover for Realme GT Neo 3 5G (Hard | Hybrid PC + TPU | Full Armour Device &amp; Camera Protection | Black) 4.1 out of 5 stars 144  30+ bought in past monthPrice, product page₹195₹195 (₹19,500₹19,500/100 g) M.R.P: ₹999M.R.P: ₹999₹999 (80% off)Buy 5 items, get 3% offFREE delivery Wed, 21 May on first orderOr fastest delivery Fri, 16 May Add to cart+1 other color/pattern</t>
+          <t>SponsoredSponsored You are seeing this ad based on the product’s relevance to your search query.Let us know  Tecno POP 9 5G Aurora Cloud, 4GB+64GB| Segment's 1st 48MP Sony AI Camera| Segment's 1st 5G with NFC | D6300 5G Processor |4+ Year Lag Free Fluency |5000 mAh Battery |Dual Speaker |Without Charger 3.9 out of 5 stars 466  1K+ bought in past monthLimited time deal  Price, product page₹9,299₹9,299 M.R.P: ₹11,999M.R.P: ₹11,999₹11,999 (23% off)₹1,000 off coupon appliedSave ₹1,000  with coupon  FREE delivery Mon, 19 May Or fastest delivery Fri, 16 May Service: InstallationAdd to cart+2 other colors/patterns</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>₹195</t>
+          <t>₹9,299</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>SponsoredSponsored You are seeing this ad based on the product’s relevance to your search query.Let us know  Fast Charger for Realme C11 2021 Charger Original Adapter Like Wall Charger | Mobile Fast Charger | Android USB Charger with 1 Meter Micro USB Charging Data Cable [2.4 Amp, White] 4.2 out of 5 stars 3  30+ bought in past monthPrice, product page₹349₹349 (₹34,900₹34,900/100 g) M.R.P: ₹799M.R.P: ₹799₹799 (56% off)Up to 5% back with Amazon Pay ICICI card FREE delivery Wed, 21 May Add to cart</t>
+          <t>SponsoredSponsored You are seeing this ad based on the product’s relevance to your search query.Let us know  Samsung Galaxy A55 5G (Awesome Iceblue, 8GB RAM, 128GB Storage) | Metal Frame | 50 MP Main Camera (OIS) | Nightography | IP67 | Corning Gorilla Glass Victus+ | sAMOLED with Vision Booster 4.2 out of 5 stars 621  2K+ bought in past monthLimited time deal  Price, product page₹26,999₹26,999 M.R.P: ₹42,999M.R.P: ₹42,999₹42,999 (37% off)Save extra with No Cost EMI FREE delivery Wed, 21 May Or fastest delivery Fri, 16 May Service: InstallationAdd to cart+1 other color/pattern</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>₹349</t>
+          <t>₹26,999</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Redmi A4 5G (Sparkle Purple, 4GB RAM, 64GB Storage) | Global Debut SD 4s Gen 2 | Segment Largest 6.88in 120Hz | 50MP Dual Camera | 18W Fast Charging 3.9 out of 5 stars 2,972  5K+ bought in past monthPrice, product page₹8,499₹8,499 M.R.P: ₹10,999M.R.P: ₹10,999₹10,999 (23% off)Up to 5% back with Amazon Pay ICICI card FREE delivery Fri, 16 May Or fastest delivery Tomorrow, 15 May Service: InstallationAdd to cart+1 other color/pattern</t>
+          <t>realme C65 5G (Glowing Black, 128 GB) (4 GB RAM) 3.3 out of 5 stars 21  Price, product page₹11,990₹11,990 M.R.P: ₹14,999M.R.P: ₹14,999₹14,999 (20% off)Up to 5% back with Amazon Pay ICICI card FREE delivery Wed, 21 May Only 2 left in stock.Service: InstallationAdd to cart</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>₹8,499</t>
+          <t>₹11,990</t>
         </is>
       </c>
     </row>
@@ -1288,7 +1288,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>realme C75 (Midnight Lily, 6GB RAM, 128GB Storage) | 6000mAh Battery | 50MP AI Camera | 6.72" FHD+ Display | Android 15 Price, product page₹13,999₹13,999 M.R.P: ₹16,999M.R.P: ₹16,999₹16,999 (18% off)Save extra with No Cost EMI FREE delivery Wed, 21 May Add to cart</t>
+          <t>realme C75 (Midnight Lily, 6GB RAM, 128GB Storage) | 6000mAh Battery | 50MP AI Camera | 6.72" FHD+ Display | Android 15 Price, product page₹13,999₹13,999 M.R.P: ₹16,999M.R.P: ₹16,999₹16,999 (18% off)Up to 5% back with Amazon Pay ICICI card FREE delivery Wed, 21 May Add to cart</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1312,36 +1312,36 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>realme NARZO N65 5G (Amber Gold 4GB RAM, 128GB Storage) India's 1st D6300 5G Chipset | Ultra Slim Design | 120Hz Eye Comfort Display | 50MP AI Camera| Charger in The Box 4.1 out of 5 stars 3,157  100+ bought in past monthPrice, product page₹10,999₹10,999 M.R.P: ₹13,999M.R.P: ₹13,999₹13,999 (21% off) FREE delivery Fri, 16 May Or fastest delivery Tomorrow, 15 May Service: InstallationAdd to cart</t>
+          <t>Redmi A4 5G (Starry Black, 4GB RAM, 64GB Storage) | Global Debut SD 4s Gen 2 | Segment Largest 6.88in 120Hz | 50MP Dual Camera | 18W Fast Charging 3.9 out of 5 stars 2,972  5K+ bought in past monthPrice, product page₹8,499₹8,499 M.R.P: ₹10,999M.R.P: ₹10,999₹10,999 (23% off)Up to 5% back with Amazon Pay ICICI card FREE delivery Fri, 16 May Or fastest delivery Tomorrow, 15 May Service: InstallationAdd to cart+1 other color/pattern</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>₹10,999</t>
+          <t>₹8,499</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Redmi A4 5G (Starry Black, 4GB RAM, 64GB Storage) | Global Debut SD 4s Gen 2 | Segment Largest 6.88in 120Hz | 50MP Dual Camera | 18W Fast Charging 3.9 out of 5 stars 2,972  5K+ bought in past monthPrice, product page₹8,499₹8,499 M.R.P: ₹10,999M.R.P: ₹10,999₹10,999 (23% off)Up to 5% back with Amazon Pay ICICI card FREE delivery Fri, 16 May Or fastest delivery Tomorrow, 15 May Service: InstallationAdd to cart+1 other color/pattern</t>
+          <t>realme NARZO N65 5G (Amber Gold 4GB RAM, 128GB Storage) India's 1st D6300 5G Chipset | Ultra Slim Design | 120Hz Eye Comfort Display | 50MP AI Camera| Charger in The Box 4.1 out of 5 stars 3,157  100+ bought in past monthPrice, product page₹10,999₹10,999 M.R.P: ₹13,999M.R.P: ₹13,999₹13,999 (21% off) FREE delivery Fri, 16 May Or fastest delivery Tomorrow, 15 May Service: InstallationAdd to cart</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>₹8,499</t>
+          <t>₹10,999</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>realme P2 Pro 5G (Parrot Green, 12 GB RAM, 256GB Storage) | Up to 24GB Dynamic RAM | 6.7" Curved Display | 7s Gen2 Processor | 4500 mm VC Cooling System | Sony LYT-600 OIS Camera | 80 W Fast Charging 3.9 out of 5 stars 72  100+ bought in past monthPrice, product page₹20,527₹20,527 M.R.P: ₹27,999M.R.P: ₹27,999₹27,999 (27% off)Up to 5% back with Amazon Pay ICICI card FREE delivery Wed, 21 May Service: InstallationAdd to cartMore Buying Choices₹20,526(4 new offers)</t>
+          <t>realme P1 5G (Phonix Red, 6GB RAM, 128GB Storage) 3.9 out of 5 stars 197  400+ bought in past monthPrice, product page₹14,386₹14,386 M.R.P: ₹20,999M.R.P: ₹20,999₹20,999 (31% off)Up to 5% back with Amazon Pay ICICI card FREE delivery Thu, 22 May Service: InstallationAdd to cartMore Buying Choices₹14,385(2 new offers)</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>₹20,527</t>
+          <t>₹14,386</t>
         </is>
       </c>
     </row>
@@ -1360,19 +1360,19 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>SponsoredSponsored You are seeing this ad based on the product’s relevance to your search query.Let us know  Samsung Galaxy A55 5G (Awesome Iceblue, 8GB RAM, 128GB Storage) | Metal Frame | 50 MP Main Camera (OIS) | Nightography | IP67 | Corning Gorilla Glass Victus+ | sAMOLED with Vision Booster 4.2 out of 5 stars 621  2K+ bought in past monthLimited time dealPrice, product page₹26,999₹26,999 M.R.P: ₹42,999M.R.P: ₹42,999₹42,999 (37% off)Save extra with No Cost EMI FREE delivery Wed, 21 May Or fastest delivery Fri, 16 May Service: InstallationAdd to cart+1 other color/pattern</t>
+          <t>SponsoredSponsored You are seeing this ad based on the product’s relevance to your search query.Let us know  WOW IMAGINE Shock Proof Clear Back Case Mobile Cover for Realme GT Neo 3 5G (Hard | Hybrid PC + TPU | Full Armour Device &amp; Camera Protection | Black) 4.1 out of 5 stars 144  30+ bought in past monthPrice, product page₹195₹195 (₹19,500₹19,500/100 g) M.R.P: ₹999M.R.P: ₹999₹999 (80% off)Buy 5 items, get 3% offFREE delivery Wed, 21 May on first orderOr fastest delivery Fri, 16 May Add to cart+1 other color/pattern</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>₹26,999</t>
+          <t>₹195</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>SponsoredSponsored You are seeing this ad based on the product’s relevance to your search query.Let us know  AIBEX ® Realme C21 Flip Cover Leather Finish | Inside TPU with Card Pockets | Wallet Stand | Complete Protection Flip Case Black 4.5 out of 5 stars 2  Price, product page₹299₹299 M.R.P: ₹1,199M.R.P: ₹1,199₹1,199 (75% off)Buy 2 items, get 3% off FREE delivery Thu, 22 May Add to cart+1 other color/pattern</t>
+          <t>SponsoredSponsored You are seeing this ad based on the product’s relevance to your search query.Let us know  AIBEX ® Realme C11Y / Realme C21Y / Realme C25Y Flip Cover Leather Finish | Inside TPU with Card Pockets | Wallet Stand | Complete Protection Flip Case Green 3.8 out of 5 stars 19  Price, product page₹299₹299 M.R.P: ₹1,199M.R.P: ₹1,199₹1,199 (75% off)Buy 2 items, get 3% offFREE delivery Wed, 21 May on first orderAdd to cart+2 other colors/patterns</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1384,31 +1384,31 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>realme P1 5G (Phonix Red, 6GB RAM, 128GB Storage) 3.9 out of 5 stars 197  400+ bought in past monthPrice, product page₹14,386₹14,386 M.R.P: ₹20,999M.R.P: ₹20,999₹20,999 (31% off)Up to 5% back with Amazon Pay ICICI card FREE delivery Thu, 22 May Service: InstallationAdd to cartMore Buying Choices₹14,385(2 new offers)</t>
+          <t>realme P2 Pro 5G (Parrot Green, 12 GB RAM, 256GB Storage) | Up to 24GB Dynamic RAM | 6.7" Curved Display | 7s Gen2 Processor | 4500 mm VC Cooling System | Sony LYT-600 OIS Camera | 80 W Fast Charging 3.9 out of 5 stars 72  100+ bought in past monthPrice, product page₹20,527₹20,527 M.R.P: ₹27,999M.R.P: ₹27,999₹27,999 (27% off)Up to 5% back with Amazon Pay ICICI card FREE delivery Wed, 21 May Service: InstallationAdd to cartMore Buying Choices₹20,526(4 new offers)</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>₹14,386</t>
+          <t>₹20,527</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Realme 14T 5G 8GB RAM 256GB ROM (Surf Green) Elegant Colors, Luxurious Design Amoled Display, IP69 Water Resistance Price, product page₹18,834₹18,834 M.R.P: ₹22,999M.R.P: ₹22,999₹22,999 (18% off)Up to 5% back with Amazon Pay ICICI card FREE delivery Wed, 21 May Or fastest delivery Sun, 18 May Add to cart</t>
+          <t>Realme 14T 5G 8GB RAM 256GB ROM (Surf Green) Elegant Colors, Luxurious Design Amoled Display, IP69 Water Resistance Price, product page₹18,831₹18,831 M.R.P: ₹22,999M.R.P: ₹22,999₹22,999 (18% off)Up to 5% back with Amazon Pay ICICI card FREE delivery Wed, 21 May Or fastest delivery Sun, 18 May Add to cart</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>₹18,834</t>
+          <t>₹18,831</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>realme NARZO 70 Turbo 5G (Turbo Green,12GB RAM, 256GB Storage) | Dimensity 7300 Energy 5G Chipset is Fastest chipset in This Segment | Motorsports Inspired Design 4.2 out of 5 stars 3,173  300+ bought in past monthLimited time dealPrice, product page₹18,998₹18,998 M.R.P: ₹23,999M.R.P: ₹23,999₹23,999 (21% off)₹1,500 off coupon appliedSave ₹1,500  with coupon  FREE delivery Wed, 21 May Or fastest delivery Fri, 16 May Service: InstallationAdd to cartMore Buying Choices₹18,921(4 new offers)</t>
+          <t>realme NARZO 70 Turbo 5G (Turbo Green,12GB RAM, 256GB Storage) | Dimensity 7300 Energy 5G Chipset is Fastest chipset in This Segment | Motorsports Inspired Design 4.2 out of 5 stars 3,174  300+ bought in past monthLimited time deal  Price, product page₹18,998₹18,998 M.R.P: ₹23,999M.R.P: ₹23,999₹23,999 (21% off)₹1,500 off coupon appliedSave ₹1,500  with coupon  FREE delivery Wed, 21 May Or fastest delivery Fri, 16 May Service: InstallationAdd to cartMore Buying Choices₹18,921(4 new offers)</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1420,7 +1420,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>realme 13+ 5G (Victory Gold, 8GB RAM, 128GB Storage) 6.67" AMOLED Display | 80W Ultra Charging DAK | Dimensity 7300E Processor 4.0 out of 5 stars 163  100+ bought in past monthPrice, product page₹16,999₹16,999 M.R.P: ₹25,999M.R.P: ₹25,999₹25,999 (35% off)Up to 5% back with Amazon Pay ICICI card FREE delivery Wed, 21 May Or fastest delivery Fri, 16 May Service: InstallationAdd to cart</t>
+          <t>realme 13+ 5G (Speed Green, 8GB RAM, 128GB Storage) 6.67" AMOLED Display | 80W Ultra Charging DAK | Dimensity 7300E Processor 4.0 out of 5 stars 163  200+ bought in past monthPrice, product page₹16,999₹16,999 M.R.P: ₹25,999M.R.P: ₹25,999₹25,999 (35% off)Up to 5% back with Amazon Pay ICICI card FREE delivery Wed, 21 May Or fastest delivery Fri, 16 May Service: InstallationAdd to cart</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1432,7 +1432,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>realme 13+ 5G (Speed Green, 8GB RAM, 128GB Storage) 6.67" AMOLED Display | 80W Ultra Charging DAK | Dimensity 7300E Processor 4.0 out of 5 stars 163  200+ bought in past monthPrice, product page₹16,999₹16,999 M.R.P: ₹25,999M.R.P: ₹25,999₹25,999 (35% off)Up to 5% back with Amazon Pay ICICI card FREE delivery Wed, 21 May Or fastest delivery Fri, 16 May Service: InstallationAdd to cart</t>
+          <t>realme 13+ 5G (Victory Gold, 8GB RAM, 128GB Storage) 6.67" AMOLED Display | 80W Ultra Charging DAK | Dimensity 7300E Processor 4.0 out of 5 stars 163  100+ bought in past monthPrice, product page₹16,999₹16,999 M.R.P: ₹25,999M.R.P: ₹25,999₹25,999 (35% off)Up to 5% back with Amazon Pay ICICI card FREE delivery Wed, 21 May Or fastest delivery Fri, 16 May Service: InstallationAdd to cart</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1444,120 +1444,120 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Tecno POP 9 (Glittery White, 3GB+64GB) |India's 1st Mediatek G50 | IP54 Rated | IR Remote | Dual Speaker with DTS | 36 Month Lag Free Fluency | 15W Fast Charging Support | 5000 mAh Battery 4.2 out of 5 stars 326  2K+ bought in past monthPrice, product page₹6,099₹6,099 M.R.P: ₹8,499M.R.P: ₹8,499₹8,499 (28% off)Save extra with No Cost EMI FREE delivery Wed, 21 May Or fastest delivery Fri, 16 May Service: InstallationAdd to cart</t>
+          <t>realme 13 Pro 5G (Monet Gold,8GB+128GB) 3.7 out of 5 stars 43  100+ bought in past monthPrice, product page₹19,910₹19,910 M.R.P: ₹28,999M.R.P: ₹28,999₹28,999 (31% off)Up to 5% back with Amazon Pay ICICI card FREE delivery Wed, 21 May Or fastest delivery Sun, 18 May Service: InstallationAdd to cart</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>₹6,099</t>
+          <t>₹19,910</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>realme 13 Pro 5G (Monet Gold,8GB+128GB) 3.7 out of 5 stars 43  100+ bought in past monthPrice, product page₹19,910₹19,910 M.R.P: ₹28,999M.R.P: ₹28,999₹28,999 (31% off)Up to 5% back with Amazon Pay ICICI card FREE delivery Wed, 21 May Or fastest delivery Sun, 18 May Service: InstallationAdd to cart</t>
+          <t>Tecno POP 9 (Glittery White, 3GB+64GB) |India's 1st Mediatek G50 | IP54 Rated | IR Remote | Dual Speaker with DTS | 36 Month Lag Free Fluency | 15W Fast Charging Support | 5000 mAh Battery 4.2 out of 5 stars 326  2K+ bought in past monthPrice, product page₹6,099₹6,099 M.R.P: ₹8,499M.R.P: ₹8,499₹8,499 (28% off)Save extra with No Cost EMI FREE delivery Wed, 21 May Or fastest delivery Fri, 16 May Service: InstallationAdd to cart</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>₹19,910</t>
+          <t>₹6,099</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>realme 13+ 5G (Dark Purple, 8GB RAM, 256GB Storage) 6.67" AMOLED Display | 80W Ultra Charging DAK | Dimensity 7300E Processor 4.0 out of 5 stars 163  Price, product page₹19,539₹19,539 M.R.P: ₹27,999M.R.P: ₹27,999₹27,999 (30% off)Up to 5% back with Amazon Pay ICICI card FREE delivery Wed, 21 May Service: InstallationAdd to cart</t>
+          <t>POCO C61 Mystical Green 4GB RAM 64GB ROM 4.0 out of 5 stars 397  5K+ bought in past monthCurrently unavailable.See options</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>₹19,539</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>SponsoredSponsored You are seeing this ad based on the product’s relevance to your search query.Let us know  AIBEX ® Realme C11Y / Realme C21Y / Realme C25Y Flip Cover Leather Finish | Inside TPU with Card Pockets | Wallet Stand | Complete Protection Flip Case Green 3.8 out of 5 stars 19  Price, product page₹299₹299 M.R.P: ₹1,199M.R.P: ₹1,199₹1,199 (75% off)Buy 2 items, get 3% offFREE delivery Wed, 21 May on first orderAdd to cart+2 other colors/patterns</t>
+          <t>SponsoredSponsored You are seeing this ad based on the product’s relevance to your search query.Let us know  Original Battery BLP693-4230mAh for Realme 3, 3i, RMX1827 RMX1825 RMX1821 with 1 Year Replacement Waranty(GF75GH6683) Price, product page₹1,499₹1,499 M.R.P: ₹2,399M.R.P: ₹2,399₹2,399 (38% off)Up to 5% back with Amazon Pay ICICI card FREE delivery Thu, 22 May Add to cart</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>₹299</t>
+          <t>₹1,499</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>SponsoredSponsored You are seeing this ad based on the product’s relevance to your search query.Let us know  AIBEX ® Realme C25 / Realme C25s Flip Cover Leather Finish | Inside TPU with Card Pockets | Wallet Stand | Complete Protection Flip Case Brown 3.8 out of 5 stars 10  Price, product page₹299₹299 M.R.P: ₹1,199M.R.P: ₹1,199₹1,199 (75% off)Buy 2 items, get 3% off FREE delivery Thu, 22 May Add to cart+3 other colors/patterns</t>
+          <t>SponsoredSponsored You are seeing this ad based on the product’s relevance to your search query.Let us know  Fast Android Charger for Realme C2 Original Oppo Charger Cable Adapter Wall Charger | Mobile Chargers | Fast Charger | Android USB Charger with 1 Meter Micro USB Charging Data Cable [2.4 Amp, White] Price, product page₹349₹349 (₹34,900₹34,900/100 g) M.R.P: ₹799M.R.P: ₹799₹799 (56% off)Up to 5% back with Amazon Pay ICICI card FREE delivery Wed, 21 May Add to cart</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>₹299</t>
+          <t>₹349</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>SponsoredSponsored You are seeing this ad based on the product’s relevance to your search query.Let us know  Samsung Galaxy A55 5G (Awesome Iceblue, 8GB RAM, 128GB Storage) | Metal Frame | 50 MP Main Camera (OIS) | Nightography | IP67 | Corning Gorilla Glass Victus+ | sAMOLED with Vision Booster 4.2 out of 5 stars 621  2K+ bought in past monthLimited time dealPrice, product page₹26,999₹26,999 M.R.P: ₹42,999M.R.P: ₹42,999₹42,999 (37% off)Save extra with No Cost EMIService: InstallationAdd to cart+1 other color/pattern</t>
+          <t>SponsoredSponsored You are seeing this ad based on the product’s relevance to your search query.Let us know  Tecno POP 9 5G Aurora Cloud, 4GB+64GB| Segment's 1st 48MP Sony AI Camera| Segment's 1st 5G with NFC | D6300 5G Processor |4+ Year Lag Free Fluency |5000 mAh Battery |Dual Speaker |Without Charger 3.9 out of 5 stars 466  1K+ bought in past monthLimited time dealPrice, product page₹9,299₹9,299 M.R.P: ₹11,999M.R.P: ₹11,999₹11,999 (23% off)₹1,000 off coupon appliedSave ₹1,000  with coupon Service: InstallationAdd to cart+2 other colors/patterns</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>₹26,999</t>
+          <t>₹9,299</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>SponsoredSponsored You are seeing this ad based on the product’s relevance to your search query.Let us know  WOW IMAGINE Shock Proof Clear Back Case Mobile Cover for Realme GT Neo 3 5G (Hard | Hybrid PC + TPU | Full Armour Device &amp; Camera Protection | Black) 4.1 out of 5 stars 144  30+ bought in past monthPrice, product page₹195₹195 (₹19,500₹19,500/100 g) M.R.P: ₹999M.R.P: ₹999₹999 (80% off)Buy 5 items, get 3% offAdd to cart+1 other color/pattern</t>
+          <t>SponsoredSponsored You are seeing this ad based on the product’s relevance to your search query.Let us know  Samsung Galaxy A55 5G (Awesome Iceblue, 8GB RAM, 128GB Storage) | Metal Frame | 50 MP Main Camera (OIS) | Nightography | IP67 | Corning Gorilla Glass Victus+ | sAMOLED with Vision Booster 4.2 out of 5 stars 621  2K+ bought in past monthLimited time dealPrice, product page₹26,999₹26,999 M.R.P: ₹42,999M.R.P: ₹42,999₹42,999 (37% off)Save extra with No Cost EMIService: InstallationAdd to cart+1 other color/pattern</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>₹195</t>
+          <t>₹26,999</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>POCO C61 Ethereal Blue 4GB RAM 64GB ROM 3.9 out of 5 stars 768  200+ bought in past monthSee optionsNo featured offers available₹8,999(1 new offer)</t>
+          <t>realme 13+ 5G (Dark Purple, 8GB RAM, 256GB Storage) 6.67" AMOLED Display | 80W Ultra Charging DAK | Dimensity 7300E Processor 4.0 out of 5 stars 163  Price, product page₹19,539₹19,539 M.R.P: ₹27,999M.R.P: ₹27,999₹27,999 (30% off)Up to 5% back with Amazon Pay ICICI cardService: InstallationAdd to cart</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>₹19,539</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>realme 8i (Space Purple, 4GB RAM, 64GB Storage), Medium 4.1 out of 5 stars 1,313  Price, product page₹9,650₹9,650 M.R.P: ₹15,999M.R.P: ₹15,999₹15,999 (40% off)Up to 5% back with Amazon Pay ICICI cardOnly 1 left in stock.Service: InstallationAdd to cart</t>
+          <t>POCO C61 Ethereal Blue 4GB RAM 64GB ROM 3.9 out of 5 stars 768  200+ bought in past monthSee optionsNo featured offers available₹8,999(1 new offer)</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>₹9,650</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>realme C63 4G (Jade Green,4 GB RAM, 64GB Storage) Up to 8GB Dynamic RAM 3.6 out of 5 stars 14  Price, product page₹8,199₹8,199 M.R.P: ₹9,999M.R.P: ₹9,999₹9,999 (18% off)Up to 5% back with Amazon Pay ICICI cardService: InstallationAdd to cart</t>
+          <t>realme 8i (Space Purple, 4GB RAM, 64GB Storage), Medium 4.1 out of 5 stars 1,313  Price, product page₹9,650₹9,650 M.R.P: ₹15,999M.R.P: ₹15,999₹15,999 (40% off)Up to 5% back with Amazon Pay ICICI cardOnly 1 left in stock.Service: InstallationAdd to cart</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>₹8,199</t>
+          <t>₹9,650</t>
         </is>
       </c>
     </row>
@@ -1576,7 +1576,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>realme C63 4G (Leather Blue,4 GB RAM, 64GB Storage) Up to 8GB Dynamic RAM 3.7 out of 5 stars 42  Price, product page₹8,199₹8,199 M.R.P: ₹9,999M.R.P: ₹9,999₹9,999 (18% off)Up to 5% back with Amazon Pay ICICI cardService: InstallationAdd to cart</t>
+          <t>realme C63 4G (Jade Green,4 GB RAM, 64GB Storage) Up to 8GB Dynamic RAM 3.6 out of 5 stars 14  Price, product page₹8,199₹8,199 M.R.P: ₹9,999M.R.P: ₹9,999₹9,999 (18% off)Up to 5% back with Amazon Pay ICICI cardService: InstallationAdd to cart</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1588,24 +1588,24 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>realme C65 5G (Feather Green, 128 GB) (6 GB RAM) 4.1 out of 5 stars 232  Price, product page₹12,499₹12,499 M.R.P: ₹15,999M.R.P: ₹15,999₹15,999 (22% off)Up to 5% back with Amazon Pay ICICI cardService: InstallationAdd to cart</t>
+          <t>realme C63 4G (Leather Blue,4 GB RAM, 64GB Storage) Up to 8GB Dynamic RAM 3.7 out of 5 stars 42  Price, product page₹8,199₹8,199 M.R.P: ₹9,999M.R.P: ₹9,999₹9,999 (18% off)Up to 5% back with Amazon Pay ICICI cardService: InstallationAdd to cart</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>₹12,499</t>
+          <t>₹8,199</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>realme 12+ 5G (Navigator Beige, 8GB RAM, 256GB Storage) 4.0 out of 5 stars 1,263  Price, product page₹19,499₹19,499 M.R.P: ₹25,999M.R.P: ₹25,999₹25,999 (25% off)Up to 5% back with Amazon Pay ICICI cardService: InstallationAdd to cart</t>
+          <t>realme C65 5G (Feather Green, 128 GB) (6 GB RAM) 4.1 out of 5 stars 232  Price, product page₹12,499₹12,499 M.R.P: ₹15,999M.R.P: ₹15,999₹15,999 (22% off)Up to 5% back with Amazon Pay ICICI cardService: InstallationAdd to cart</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>₹19,499</t>
+          <t>₹12,499</t>
         </is>
       </c>
     </row>
@@ -1624,31 +1624,31 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>SponsoredSponsored You are seeing this ad based on the product’s relevance to your search query.Let us know  AIBEX ® Realme C11Y / Realme C21Y / Realme C25Y Flip Cover Leather Finish | Inside TPU with Card Pockets | Wallet Stand | Complete Protection Flip Case Green 3.8 out of 5 stars 19  Price, product page₹299₹299 M.R.P: ₹1,199M.R.P: ₹1,199₹1,199 (75% off)Buy 2 items, get 3% offAdd to cart+2 other colors/patterns</t>
+          <t>SponsoredSponsored You are seeing this ad based on the product’s relevance to your search query.Let us know  WOW IMAGINE Shock Proof Clear Back Case Mobile Cover for Realme GT Neo 3 5G (Hard | Hybrid PC + TPU | Full Armour Device &amp; Camera Protection | Black) 4.1 out of 5 stars 144  30+ bought in past monthPrice, product page₹195₹195 (₹19,500₹19,500/100 g) M.R.P: ₹999M.R.P: ₹999₹999 (80% off)Buy 5 items, get 3% offAdd to cart+1 other color/pattern</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>₹299</t>
+          <t>₹195</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>SponsoredSponsored You are seeing this ad based on the product’s relevance to your search query.Let us know  Original Battery BLP693-4230mAh for Realme 3, 3i, RMX1827 RMX1825 RMX1821 with 1 Year Replacement Waranty(GF75GH6683) Price, product page₹1,499₹1,499 M.R.P: ₹2,399M.R.P: ₹2,399₹2,399 (38% off)Up to 5% back with Amazon Pay ICICI cardAdd to cart</t>
+          <t>SponsoredSponsored You are seeing this ad based on the product’s relevance to your search query.Let us know  AIBEX ® Realme C11Y / Realme C21Y / Realme C25Y Flip Cover Leather Finish | Inside TPU with Card Pockets | Wallet Stand | Complete Protection Flip Case Green 3.8 out of 5 stars 19  Price, product page₹299₹299 M.R.P: ₹1,199M.R.P: ₹1,199₹1,199 (75% off)Buy 2 items, get 3% offAdd to cart+2 other colors/patterns</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>₹1,499</t>
+          <t>₹299</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>realme P3 5G with 6.67″ FHD+ 120Hz AMOLED Display (8 GB RAM, 128 GB ROM) Space Silver 3.5 out of 5 stars 4  200+ bought in past monthPrice, product page₹17,599₹17,599 M.R.P: ₹20,999M.R.P: ₹20,999₹20,999 (16% off)Up to 5% back with Amazon Pay ICICI cardService: InstallationAdd to cart</t>
+          <t>realme P3 5G with 6.67″ FHD+ 120Hz AMOLED Display (8 GB RAM, 128 GB ROM) Space Silver 3.5 out of 5 stars 4  200+ bought in past monthPrice, product page₹17,599₹17,599 M.R.P: ₹20,999M.R.P: ₹20,999₹20,999 (16% off)Up to 5% back with Amazon Pay ICICI cardService: InstallationAdd to cartMore Buying Choices₹17,598(5 new offers)</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1696,24 +1696,24 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>realme NARZO 80 Pro 5G (Speed Silver,8GB+256GB) | Segment's 1st MediaTek Dimensity 7400 Chipset | 6000mAh Titan Battery + 80W Ultra Charge | 4500nits HyperGlow Esports Display | IP69 Waterproof 4.4 out of 5 stars 191  1K+ bought in past monthPrice, product page₹21,498₹21,498 M.R.P: ₹25,999M.R.P: ₹25,999₹25,999 (17% off)₹1,500 off coupon appliedSave ₹1,500  with coupon Service: InstallationAdd to cart</t>
+          <t>realme 12+ 5G (Navigator Beige, 8GB RAM, 256GB Storage) 4.0 out of 5 stars 1,263  Price, product page₹19,499₹19,499 M.R.P: ₹25,999M.R.P: ₹25,999₹25,999 (25% off)Up to 5% back with Amazon Pay ICICI cardService: InstallationAdd to cart</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>₹21,498</t>
+          <t>₹19,499</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>realme C65 5G (Feather Green, 128 GB) (4 GB RAM) 3.5 out of 5 stars 41  Price, product page₹11,491₹11,491 M.R.P: ₹14,999M.R.P: ₹14,999₹14,999 (23% off)Up to 5% back with Amazon Pay ICICI cardService: InstallationAdd to cart</t>
+          <t>realme NARZO 80 Pro 5G (Speed Silver,8GB+256GB) | Segment's 1st MediaTek Dimensity 7400 Chipset | 6000mAh Titan Battery + 80W Ultra Charge | 4500nits HyperGlow Esports Display | IP69 Waterproof 4.4 out of 5 stars 191  1K+ bought in past monthPrice, product page₹21,498₹21,498 M.R.P: ₹25,999M.R.P: ₹25,999₹25,999 (17% off)₹1,500 off coupon appliedSave ₹1,500  with coupon Service: InstallationAdd to cart</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>₹11,491</t>
+          <t>₹21,498</t>
         </is>
       </c>
     </row>
@@ -1732,36 +1732,36 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>OnePlus Nord CE4 Lite 5G (Ultra Orange, 8GB RAM, 256GB Storage) 4.1 out of 5 stars 6,249  500+ bought in past monthPrice, product page₹20,998₹20,998 M.R.P: ₹23,999M.R.P: ₹23,999₹23,999 (13% off)Service: InstallationAdd to cart</t>
+          <t>realme C65 5G (Feather Green, 128 GB) (4 GB RAM) 3.5 out of 5 stars 41  Price, product page₹11,491₹11,491 M.R.P: ₹14,999M.R.P: ₹14,999₹14,999 (23% off)Up to 5% back with Amazon Pay ICICI cardService: InstallationAdd to cart</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>₹20,998</t>
+          <t>₹11,491</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>SponsoredSponsored You are seeing this ad based on the product’s relevance to your search query.Let us know  Original 80W SuperVooc Adapter Compatible with OnePlus 11 256GB 11R 256GB Ace 128GB 10T 8GB 8 Pro 5G Nord 5G Nord 2 5G Nord CE 2 5G OnePlus Ace 5G with SIX Months Replacement Warranty 4.1 out of 5 stars 20  Limited time dealPrice, product page₹1,139₹1,139 M.R.P: ₹2,999M.R.P: ₹2,999₹2,999 (62% off)Up to 5% back with Amazon Pay ICICI cardAdd to cart</t>
+          <t>SponsoredSponsored You are seeing this ad based on the product’s relevance to your search query.Let us know  Original Battery BLP693-4230mAh for Realme 3, 3i, RMX1827 RMX1825 RMX1821 with 1 Year Replacement Waranty(GF75GH6683) Price, product page₹1,499₹1,499 M.R.P: ₹2,399M.R.P: ₹2,399₹2,399 (38% off)Up to 5% back with Amazon Pay ICICI cardAdd to cart</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>₹1,139</t>
+          <t>₹1,499</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>SponsoredSponsored You are seeing this ad based on the product’s relevance to your search query.Let us know  Fast Android Charger for Realme C2 Original Oppo Charger Cable Adapter Wall Charger | Mobile Chargers | Fast Charger | Android USB Charger with 1 Meter Micro USB Charging Data Cable [2.4 Amp, White] Price, product page₹349₹349 (₹34,900₹34,900/100 g) M.R.P: ₹799M.R.P: ₹799₹799 (56% off)Up to 5% back with Amazon Pay ICICI cardAdd to cart</t>
+          <t>SponsoredSponsored You are seeing this ad based on the product’s relevance to your search query.Let us know  Original 80W SuperVooc Adapter Compatible with OnePlus 11 256GB 11R 256GB Ace 128GB 10T 8GB 8 Pro 5G Nord 5G Nord 2 5G Nord CE 2 5G OnePlus Ace 5G with SIX Months Replacement Warranty 4.1 out of 5 stars 20  Limited time dealPrice, product page₹1,139₹1,139 M.R.P: ₹2,999M.R.P: ₹2,999₹2,999 (62% off)Up to 5% back with Amazon Pay ICICI cardAdd to cart</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>₹349</t>
+          <t>₹1,139</t>
         </is>
       </c>
     </row>

--- a/realme_smartphones.xlsx
+++ b/realme_smartphones.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,61 +448,691 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>realme 13 Pro 5G (Monet Gold,8GB+128GB)</t>
+          <t>realme P2 Pro 5G (Parrot Green, 512 GB)</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19801</v>
+        <v>20999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>OnePlus Nord CE4 Lite 5G (Super Silver, 8GB RAM, 128GB Storage)</t>
+          <t>realme 13 Pro+ 5G (Emerald Green, 256 GB)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17998</v>
+        <v>25999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>realme 14 Pro+ 5G (Pearl White, 12GB RAM, 256GB Storage)| 6.83" Curved AMOLED Display | 50MP Sony IMX896 OIS + 50MP Periscope Rear Cam | 6000mAh Battery | Snapdragon 7s Gen 3 Processor | 80W SUPERVOOC</t>
+          <t>realme 13 Pro+ 5G (Monet Purple, 256 GB)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31780</v>
+        <v>25999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>realme 13 5G (Dark Purple, 8GB RAM, 256GB Storage) | Expandable Upto 2TB | Up to 18GB Dynamic RAM | 50MP AI Dual Camera | 6.72" AMOLED Display | 45W Ultra Charging | Dimensity 6300 Processor</t>
+          <t>realme P3 Ultra 5G (Glowing Lunar White, 256 GB)</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16899</v>
+        <v>26999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>OnePlus Nord CE4 Lite 5G (Ultra Orange, 8GB RAM, 256GB Storage)</t>
+          <t>realme P2 Pro 5G (Parrot Green, 128 GB)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20998</v>
+        <v>17999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>realme NARZO 80 Pro 5G (Speed Silver,8GB+256GB) | Segment's 1st MediaTek Dimensity 7400 Chipset | 6000mAh Titan Battery + 80W Ultra Charge | 4500nits HyperGlow Esports Display | IP69 Waterproof</t>
+          <t>realme P2 Pro 5G (Parrot Green, 256 GB)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21498</v>
+        <v>19999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>realme P3 Ultra 5G (Glowing Lunar White, 256 GB)</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>25999</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>realme 13 Pro+ 5G (Monet Gold, 256 GB)</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>26999</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>realme 14T 5G (Lightning Purple, 128 GB)</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>17999</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>realme 13 Pro 5G (Monet Gold, 256 GB)</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>23999</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>realme P3 Ultra 5G (Orion Red, 256 GB)</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>25999</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>realme 13 Pro+ 5G (Monet Purple, 512 GB)</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>28999</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>realme GT 6 (Fluid Silver, 256 GB)</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>29999</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>realme 14 Pro+ 5G (Pearl White, 256 GB)</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>31999</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>realme P3 Ultra 5G (Orion Red, 256 GB)</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>25999</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>realme 13 Pro+ 5G (Monet Purple, 512 GB)</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>28999</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>realme 14 Pro+ 5G (Pearl White, 256 GB)</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>31999</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>realme GT 6 (Fluid Silver, 256 GB)</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>29999</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>realme P2 Pro 5G (Eagle Grey, 128 GB)</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>17999</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>realme P3 Pro 5G (Nebula Glow, 128 GB)</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>21999</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>realme P3 5G (Nebula Pink, 128 GB)</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>15999</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>realme GT 6 (Fluid Silver, 256 GB)</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>30999</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>realme 14x 5G (Crystal Black, 128 GB)</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>15999</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>realme 13 Pro 5G (Emerald Green, 128 GB)</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>21999</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>realme 13 Pro+ 5G (Monet Gold, 256 GB)</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>25999</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>realme GT 6 (Razor Green, 256 GB)</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>30999</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>realme 14 Pro 5G (Pearl White, 256 GB)</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>26999</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>realme 14 Pro+ 5G (Suede Grey, 128 GB)</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>29999</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>realme 13+ 5G (Speed Green, 256 GB)</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>26999</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>realme P3 Ultra 5G (Neptune Blue, 256 GB)</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>25999</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>realme P1 Speed 5G (Brushed Blue, 256 GB)</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>16999</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>realme 13 Pro+ 5G (Monet Gold, 512 GB)</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>28999</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>realme 14 Pro 5G (Jaipur Pink, 128 GB)</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>24999</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>realme 13 Pro 5G (Monet Purple, 512 GB)</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>26999</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>realme Narzo 70 Pro 5G (Green, Glass Green, 128 GB)</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>19490</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>realme 7 (Mist White, 64 GB)</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>17999</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>realme 14 Pro 5G (Pearl White, 128 GB)</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>24999</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>realme 12 Pro 5G (Submarine Blue, 128 GB)</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>19999</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>realme 14 Pro+ 5G (Suede Grey, 256 GB)</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>31999</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>realme Narzo 70 Pro 5G (Glass Green, 256 GB)</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>19990</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>realme GT Neo 3 (Nitro Blue, 256 GB)</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>24449</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>realme 14 Pro Lite 5G (Glass Gold, 128 GB)</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>21999</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>realme 13 Pro 5G (Emerald Green, 512 GB)</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>26999</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>realme 70 TURBO 5G (Turbo Green, 256 GB)</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>19280</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>realme 14 Pro+ 5G (Pearl White, 128 GB)</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>29999</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>realme GT 6T 5G (Fluid Silver, 128 GB)</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>23290</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>realme P3 Pro 5G (Saturn Brown, 128 GB)</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>21999</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>realme 14 Pro 5G (Suede Grey, 128 GB)</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>24999</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>realme P3 Pro 5G (Saturn Brown, 256 GB)</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>23999</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>realme P3 Ultra 5G (Glowing Lunar White, 128 GB)</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>24999</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>realme 14T 5G (Obsidian Black, 128 GB)</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>17999</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>realme P3 Pro 5G (Nebula Glow, 256 GB)</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>22999</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>realme 14T 5G (Obsidian Black, 256 GB)</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>19999</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>realme 13 Pro+ 5G (Monet Purple, 256 GB)</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>26999</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>realme X7 Pro 5G (Fantasy, 128 GB)</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>29999</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>realme P1 Pro 5G (Phoenix Red, 256 GB)</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>25999</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>realme 14 Pro Lite 5G (Glass Purple, 128 GB)</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>21999</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>realme 70 TURBO 5G (Turbo Purple, 128 GB)</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>16290</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>realme P1 Speed 5G (Textured Titanium, 256 GB)</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>16990</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>realme 14 Pro+ 5G (Bikaner Purple, 128 GB)</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>29999</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>realme NARZO 70X 5G (ICE BLUE, 128 GB)</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>16999</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>realme 14T 5G (Lightning Purple, 256 GB)</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>19999</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>realme 12 Pro+ 5G (Submarine Blue, 256 GB)</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>23999</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>realme P3 Pro 5G (Saturn Brown, 256 GB)</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>22999</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>realme 70 TURBO 5G (Turbo Yellow, 128 GB)</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>15289</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>realme 10 Pro+ 5G (Nebula Blue, 256 GB)</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>27999</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>realme 11 Pro 5G (Sunrise Beige, 256 GB)</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>24999</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>realme 14 Pro 5G (Suede Grey, 256 GB)</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>26999</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>realme 10 Pro+ 5G (Nebula Blue, 128 GB)</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>25999</v>
       </c>
     </row>
   </sheetData>
